--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -144,14 +144,24 @@
     <t>SOY</t>
   </si>
   <si>
-    <t>Tổng hợp kho ngày 25/6/2020</t>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>TỔNG HỢP KHO NGÀY 25/06/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +212,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -290,18 +334,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,12 +356,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -351,16 +384,7 @@
     <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -373,12 +397,83 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -687,505 +782,505 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="7" style="20" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="20"/>
+    <col min="1" max="1" width="34.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-    </row>
-    <row r="2" spans="1:34" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+    </row>
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="C8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="21">
         <v>3</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="21">
         <v>42</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29">
+      <c r="F8" s="21"/>
+      <c r="G8" s="22">
         <f>SUM(D8:F8)</f>
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>1</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="24">
         <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30">
+      <c r="C10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
         <v>7</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31">
+      <c r="F10" s="23"/>
+      <c r="G10" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31">
+      <c r="C11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30">
+      <c r="C12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23">
         <v>13</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31">
+      <c r="F12" s="23"/>
+      <c r="G12" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="30">
+      <c r="C13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31">
+      <c r="C14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="30">
+      <c r="C15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="23">
         <v>3</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23">
         <v>49</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="24">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30">
+      <c r="C16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23">
         <v>7</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31">
+      <c r="F16" s="23"/>
+      <c r="G16" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="30">
+      <c r="C17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="30">
+      <c r="C18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="23">
         <v>4</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="23">
         <v>124</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="23">
         <v>58</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="24">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="30">
+      <c r="C19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="23">
         <v>3</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23">
         <v>32</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="24">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="30">
+      <c r="C20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="23">
         <v>4</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="23">
         <v>54</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="23">
         <v>48</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="24">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32">
+      <c r="C21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25">
         <v>127</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33">
+      <c r="F21" s="25"/>
+      <c r="G21" s="26">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="27">
         <f>SUM(E8:E21)</f>
         <v>374</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="27">
         <f>SUM(F8:F21)</f>
         <v>188</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="27">
         <f t="shared" si="0"/>
         <v>581</v>
       </c>
@@ -1210,532 +1305,555 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="7" style="20" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="20"/>
+    <col min="1" max="1" width="35.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.77734375" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="39" customWidth="1"/>
+    <col min="7" max="7" width="13" style="39" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="39" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-    </row>
-    <row r="2" spans="1:34" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
+      <c r="I6" s="44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="C8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="48">
         <v>3</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="48">
         <v>16</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29">
+      <c r="F8" s="48"/>
+      <c r="G8" s="49">
         <f>SUM(D8:F8)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="H8" s="50">
+        <v>225000</v>
+      </c>
+      <c r="I8" s="50">
+        <f>G8*H8</f>
+        <v>4275000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30">
+      <c r="C9" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51">
         <v>264</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="51">
         <v>9</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="52">
         <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
         <v>273</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="H9" s="53">
+        <v>455000</v>
+      </c>
+      <c r="I9" s="53">
+        <f t="shared" ref="I9:I21" si="1">G9*H9</f>
+        <v>124215000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30">
+      <c r="C10" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51">
         <v>5</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31">
+      <c r="F10" s="51"/>
+      <c r="G10" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="H10" s="53">
+        <v>235000</v>
+      </c>
+      <c r="I10" s="53">
+        <f t="shared" si="1"/>
+        <v>1175000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31">
+      <c r="C11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="H11" s="53">
+        <v>465000</v>
+      </c>
+      <c r="I11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30">
+      <c r="C12" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51">
         <v>13</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31">
+      <c r="F12" s="51"/>
+      <c r="G12" s="52">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="H12" s="53">
+        <v>245000</v>
+      </c>
+      <c r="I12" s="53">
+        <f t="shared" si="1"/>
+        <v>3185000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="30">
+      <c r="C13" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="51">
         <v>1</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31">
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="H13" s="53">
+        <v>475000</v>
+      </c>
+      <c r="I13" s="53">
+        <f t="shared" si="1"/>
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31">
+      <c r="C14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="H14" s="53">
+        <v>255000</v>
+      </c>
+      <c r="I14" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="30">
+      <c r="C15" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="51">
         <v>2</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30">
+      <c r="E15" s="51"/>
+      <c r="F15" s="51">
         <v>30</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="52">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="H15" s="53">
+        <v>485000</v>
+      </c>
+      <c r="I15" s="53">
+        <f t="shared" si="1"/>
+        <v>15520000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30">
+      <c r="C16" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51">
         <v>7</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31">
+      <c r="F16" s="51"/>
+      <c r="G16" s="52">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="H16" s="53">
+        <v>255000</v>
+      </c>
+      <c r="I16" s="53">
+        <f t="shared" si="1"/>
+        <v>1785000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31">
+      <c r="C17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="H17" s="53">
+        <v>485000</v>
+      </c>
+      <c r="I17" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="30">
+      <c r="C18" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="51">
         <v>4</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="51">
         <v>123</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="51">
         <v>58</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="52">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="H18" s="53">
+        <v>455000</v>
+      </c>
+      <c r="I18" s="53">
+        <f t="shared" si="1"/>
+        <v>84175000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="30">
+      <c r="C19" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="51">
         <v>3</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30">
+      <c r="E19" s="51"/>
+      <c r="F19" s="51">
         <v>6</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="52">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="H19" s="53">
+        <v>455000</v>
+      </c>
+      <c r="I19" s="53">
+        <f t="shared" si="1"/>
+        <v>4095000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="30">
+      <c r="C20" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="51">
         <v>3</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="51">
         <v>53</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="51">
         <v>47</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="52">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="H20" s="53">
+        <v>550000</v>
+      </c>
+      <c r="I20" s="53">
+        <f t="shared" si="1"/>
+        <v>56650000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32">
+      <c r="C21" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54">
         <v>127</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33">
+      <c r="F21" s="54"/>
+      <c r="G21" s="55">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="H21" s="56">
+        <v>450000</v>
+      </c>
+      <c r="I21" s="56">
+        <f t="shared" si="1"/>
+        <v>57150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58">
         <f>SUM(D8:D21)</f>
         <v>16</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="58">
         <f>SUM(E8:E21)</f>
         <v>608</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="58">
         <f>SUM(F8:F21)</f>
         <v>150</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="58">
         <f t="shared" si="0"/>
         <v>774</v>
       </c>
+      <c r="H22" s="59"/>
+      <c r="I22" s="36">
+        <f>SUM(I8:I21)</f>
+        <v>352700000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A4:G4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.56999999999999995" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -159,7 +159,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -339,7 +339,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +398,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,55 +447,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -793,18 +794,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -830,18 +831,18 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -901,15 +902,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -939,28 +940,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34" t="s">
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -970,7 +971,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1263,11 +1264,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1305,534 +1306,695 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I2"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.77734375" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="39" customWidth="1"/>
-    <col min="7" max="7" width="13" style="39" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" style="39" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="39"/>
+    <col min="1" max="1" width="35.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="13" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="60" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+    <row r="7" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="48">
+      <c r="C8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="34">
         <v>3</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="34">
         <v>16</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49">
+      <c r="F8" s="34"/>
+      <c r="G8" s="35">
         <f>SUM(D8:F8)</f>
         <v>19</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="36">
         <v>225000</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="36">
         <f>G8*H8</f>
         <v>4275000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="J8" s="35">
+        <f>G8</f>
+        <v>19</v>
+      </c>
+      <c r="K8" s="36">
+        <v>225000</v>
+      </c>
+      <c r="L8" s="61">
+        <f>J8*K8</f>
+        <v>4275000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51">
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37">
         <v>264</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="37">
         <v>9</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="38">
         <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
         <v>273</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="39">
         <v>455000</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="39">
         <f t="shared" ref="I9:I21" si="1">G9*H9</f>
         <v>124215000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="J9" s="35">
+        <f t="shared" ref="J9:J21" si="2">G9</f>
+        <v>273</v>
+      </c>
+      <c r="K9" s="39">
+        <v>455000</v>
+      </c>
+      <c r="L9" s="61">
+        <f t="shared" ref="L9:L21" si="3">J9*K9</f>
+        <v>124215000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51">
+      <c r="C10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37">
         <v>5</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52">
+      <c r="F10" s="37"/>
+      <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="39">
         <v>235000</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="39">
         <f t="shared" si="1"/>
         <v>1175000</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K10" s="39">
+        <v>235000</v>
+      </c>
+      <c r="L10" s="61">
+        <f t="shared" si="3"/>
+        <v>1175000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52">
+      <c r="C11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="39">
         <v>465000</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="J11" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="39">
+        <v>465000</v>
+      </c>
+      <c r="L11" s="61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51">
+      <c r="C12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37">
         <v>13</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52">
+      <c r="F12" s="37"/>
+      <c r="G12" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="39">
         <v>245000</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="39">
         <f t="shared" si="1"/>
         <v>3185000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="J12" s="35">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="K12" s="39">
+        <v>245000</v>
+      </c>
+      <c r="L12" s="61">
+        <f t="shared" si="3"/>
+        <v>3185000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="51">
+      <c r="C13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="37">
         <v>1</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="39">
         <v>475000</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
         <v>475000</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="J13" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="39">
+        <v>475000</v>
+      </c>
+      <c r="L13" s="61">
+        <f t="shared" si="3"/>
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52">
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="39">
         <v>255000</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="J14" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="39">
+        <v>255000</v>
+      </c>
+      <c r="L14" s="61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="51">
+      <c r="C15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37">
         <v>2</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51">
+      <c r="E15" s="37"/>
+      <c r="F15" s="37">
         <v>30</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="38">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="39">
         <v>485000</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="39">
         <f t="shared" si="1"/>
         <v>15520000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="J15" s="35">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="K15" s="39">
+        <v>485000</v>
+      </c>
+      <c r="L15" s="61">
+        <f t="shared" si="3"/>
+        <v>15520000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51">
+      <c r="C16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37">
         <v>7</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52">
+      <c r="F16" s="37"/>
+      <c r="G16" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="39">
         <v>255000</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="39">
         <f t="shared" si="1"/>
         <v>1785000</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="J16" s="35">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K16" s="39">
+        <v>255000</v>
+      </c>
+      <c r="L16" s="61">
+        <f t="shared" si="3"/>
+        <v>1785000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52">
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="39">
         <v>485000</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="J17" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="39">
+        <v>485000</v>
+      </c>
+      <c r="L17" s="61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="51">
+      <c r="C18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37">
         <v>4</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="37">
         <v>123</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="37">
         <v>58</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="38">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="39">
         <v>455000</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="39">
         <f t="shared" si="1"/>
         <v>84175000</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+      <c r="J18" s="35">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="K18" s="39">
+        <v>455000</v>
+      </c>
+      <c r="L18" s="61">
+        <f t="shared" si="3"/>
+        <v>84175000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="51">
+      <c r="C19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37">
         <v>3</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51">
+      <c r="E19" s="37"/>
+      <c r="F19" s="37">
         <v>6</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="39">
         <v>455000</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="39">
         <f t="shared" si="1"/>
         <v>4095000</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
+      <c r="J19" s="35">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="K19" s="39">
+        <v>455000</v>
+      </c>
+      <c r="L19" s="61">
+        <f t="shared" si="3"/>
+        <v>4095000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="51">
+      <c r="C20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="37">
         <v>3</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="37">
         <v>53</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="37">
         <v>47</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="38">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="39">
         <v>550000</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="39">
         <f t="shared" si="1"/>
         <v>56650000</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
+      <c r="J20" s="35">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="K20" s="39">
+        <v>550000</v>
+      </c>
+      <c r="L20" s="61">
+        <f t="shared" si="3"/>
+        <v>56650000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54">
+      <c r="C21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40">
         <v>127</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55">
+      <c r="F21" s="40"/>
+      <c r="G21" s="41">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="42">
         <v>450000</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="42">
         <f t="shared" si="1"/>
         <v>57150000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="35">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="K21" s="42">
+        <v>450000</v>
+      </c>
+      <c r="L21" s="61">
+        <f t="shared" si="3"/>
+        <v>57150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
-      <c r="D22" s="58">
+      <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="43">
         <f>SUM(E8:E21)</f>
         <v>608</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="43">
         <f>SUM(F8:F21)</f>
         <v>150</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="43">
         <f t="shared" si="0"/>
         <v>774</v>
       </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="36">
+      <c r="H22" s="44"/>
+      <c r="I22" s="28">
         <f>SUM(I8:I21)</f>
+        <v>352700000</v>
+      </c>
+      <c r="L22" s="61">
+        <f>SUM(L8:L21)</f>
         <v>352700000</v>
       </c>
     </row>

--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
     <sheet name="25_06" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -151,12 +151,15 @@
   </si>
   <si>
     <t>TỔNG HỢP KHO NGÀY 25/06/2020</t>
+  </si>
+  <si>
+    <t>ĐL Thanh Hóa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -265,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -333,13 +336,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,7 +513,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -483,6 +541,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -531,7 +592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,7 +627,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,19 +842,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="16"/>
+    <col min="7" max="7" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -830,7 +891,7 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
@@ -958,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -1306,29 +1367,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="29" customWidth="1"/>
     <col min="7" max="7" width="13" style="29" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="29"/>
+    <col min="11" max="11" width="9.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1404,7 @@
       <c r="H1" s="55"/>
       <c r="I1" s="55"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
@@ -1358,7 +1419,7 @@
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -1369,7 +1430,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
         <v>44</v>
       </c>
@@ -1382,7 +1443,7 @@
       <c r="H4" s="54"/>
       <c r="I4" s="54"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
@@ -1406,8 +1467,13 @@
       <c r="I6" s="53" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="J6" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+    </row>
+    <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
@@ -1423,8 +1489,11 @@
       <c r="G7" s="53"/>
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J7" s="69"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -1452,19 +1521,20 @@
         <f>G8*H8</f>
         <v>4275000</v>
       </c>
-      <c r="J8" s="35">
-        <f>G8</f>
-        <v>19</v>
-      </c>
+      <c r="J8" s="35"/>
       <c r="K8" s="36">
         <v>225000</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="64">
         <f>J8*K8</f>
-        <v>4275000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
+        <f>G8-J8</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -1493,18 +1563,22 @@
         <v>124215000</v>
       </c>
       <c r="J9" s="35">
-        <f t="shared" ref="J9:J21" si="2">G9</f>
-        <v>273</v>
+        <f>12*3</f>
+        <v>36</v>
       </c>
       <c r="K9" s="39">
         <v>455000</v>
       </c>
-      <c r="L9" s="61">
-        <f t="shared" ref="L9:L21" si="3">J9*K9</f>
-        <v>124215000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="64">
+        <f t="shared" ref="L9:L21" si="2">J9*K9</f>
+        <v>16380000</v>
+      </c>
+      <c r="M9" s="29">
+        <f t="shared" ref="M9:M21" si="3">G9-J9</f>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -1530,19 +1604,20 @@
         <f t="shared" si="1"/>
         <v>1175000</v>
       </c>
-      <c r="J10" s="35">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="J10" s="35"/>
       <c r="K10" s="39">
         <v>235000</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="29">
         <f t="shared" si="3"/>
-        <v>1175000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -1566,19 +1641,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="J11" s="35"/>
       <c r="K11" s="39">
         <v>465000</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -1604,19 +1680,20 @@
         <f t="shared" si="1"/>
         <v>3185000</v>
       </c>
-      <c r="J12" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
+      <c r="J12" s="35"/>
       <c r="K12" s="39">
         <v>245000</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="29">
         <f t="shared" si="3"/>
-        <v>3185000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -1642,19 +1719,20 @@
         <f t="shared" si="1"/>
         <v>475000</v>
       </c>
-      <c r="J13" s="35">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="J13" s="35"/>
       <c r="K13" s="39">
         <v>475000</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="29">
         <f t="shared" si="3"/>
-        <v>475000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -1678,19 +1756,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="J14" s="35"/>
       <c r="K14" s="39">
         <v>255000</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -1719,18 +1798,21 @@
         <v>15520000</v>
       </c>
       <c r="J15" s="35">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K15" s="39">
         <v>485000</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="64">
+        <f t="shared" si="2"/>
+        <v>11640000</v>
+      </c>
+      <c r="M15" s="29">
         <f t="shared" si="3"/>
-        <v>15520000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -1756,19 +1838,20 @@
         <f t="shared" si="1"/>
         <v>1785000</v>
       </c>
-      <c r="J16" s="35">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
+      <c r="J16" s="35"/>
       <c r="K16" s="39">
         <v>255000</v>
       </c>
-      <c r="L16" s="61">
+      <c r="L16" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="29">
         <f t="shared" si="3"/>
-        <v>1785000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -1792,19 +1875,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="J17" s="35"/>
       <c r="K17" s="39">
         <v>485000</v>
       </c>
-      <c r="L17" s="61">
+      <c r="L17" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -1835,18 +1919,22 @@
         <v>84175000</v>
       </c>
       <c r="J18" s="35">
-        <f t="shared" si="2"/>
-        <v>185</v>
+        <f>12*3</f>
+        <v>36</v>
       </c>
       <c r="K18" s="39">
         <v>455000</v>
       </c>
-      <c r="L18" s="61">
+      <c r="L18" s="64">
+        <f t="shared" si="2"/>
+        <v>16380000</v>
+      </c>
+      <c r="M18" s="29">
         <f t="shared" si="3"/>
-        <v>84175000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -1874,19 +1962,20 @@
         <f t="shared" si="1"/>
         <v>4095000</v>
       </c>
-      <c r="J19" s="35">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
+      <c r="J19" s="35"/>
       <c r="K19" s="39">
         <v>455000</v>
       </c>
-      <c r="L19" s="61">
+      <c r="L19" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="29">
         <f t="shared" si="3"/>
-        <v>4095000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -1917,18 +2006,22 @@
         <v>56650000</v>
       </c>
       <c r="J20" s="35">
-        <f t="shared" si="2"/>
-        <v>103</v>
+        <f>24*3</f>
+        <v>72</v>
       </c>
       <c r="K20" s="39">
         <v>550000</v>
       </c>
-      <c r="L20" s="61">
+      <c r="L20" s="64">
+        <f t="shared" si="2"/>
+        <v>39600000</v>
+      </c>
+      <c r="M20" s="29">
         <f t="shared" si="3"/>
-        <v>56650000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -1954,19 +2047,20 @@
         <f t="shared" si="1"/>
         <v>57150000</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="62"/>
+      <c r="K21" s="63">
+        <v>450000</v>
+      </c>
+      <c r="L21" s="64">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="29">
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="K21" s="42">
-        <v>450000</v>
-      </c>
-      <c r="L21" s="61">
-        <f t="shared" si="3"/>
-        <v>57150000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>9</v>
       </c>
@@ -1993,13 +2087,21 @@
         <f>SUM(I8:I21)</f>
         <v>352700000</v>
       </c>
-      <c r="L22" s="61">
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="67"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L23" s="67">
         <f>SUM(L8:L21)</f>
-        <v>352700000</v>
+        <v>84000000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="F1:I1"/>
@@ -2025,7 +2127,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
     <sheet name="25_06" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="02-07" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="48">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>ĐL Thanh Hóa</t>
+  </si>
+  <si>
+    <t>TỔNG HỢP KHO NGÀY 02/07/2020</t>
+  </si>
+  <si>
+    <t>NGƯỜI GIÁM SÁT</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,48 +471,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -517,18 +481,72 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -839,7 +857,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,18 +873,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -892,18 +910,18 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -963,15 +981,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1001,28 +1019,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1032,7 +1050,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1325,11 +1343,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1369,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1390,34 +1408,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="55" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
@@ -1431,52 +1449,52 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -1486,12 +1504,12 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -1525,7 +1543,7 @@
       <c r="K8" s="36">
         <v>225000</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="50">
         <f>J8*K8</f>
         <v>0</v>
       </c>
@@ -1569,7 +1587,7 @@
       <c r="K9" s="39">
         <v>455000</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="50">
         <f t="shared" ref="L9:L21" si="2">J9*K9</f>
         <v>16380000</v>
       </c>
@@ -1608,7 +1626,7 @@
       <c r="K10" s="39">
         <v>235000</v>
       </c>
-      <c r="L10" s="64">
+      <c r="L10" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1645,7 +1663,7 @@
       <c r="K11" s="39">
         <v>465000</v>
       </c>
-      <c r="L11" s="64">
+      <c r="L11" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1684,7 +1702,7 @@
       <c r="K12" s="39">
         <v>245000</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1723,7 +1741,7 @@
       <c r="K13" s="39">
         <v>475000</v>
       </c>
-      <c r="L13" s="64">
+      <c r="L13" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1760,7 +1778,7 @@
       <c r="K14" s="39">
         <v>255000</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1803,7 +1821,7 @@
       <c r="K15" s="39">
         <v>485000</v>
       </c>
-      <c r="L15" s="64">
+      <c r="L15" s="50">
         <f t="shared" si="2"/>
         <v>11640000</v>
       </c>
@@ -1842,7 +1860,7 @@
       <c r="K16" s="39">
         <v>255000</v>
       </c>
-      <c r="L16" s="64">
+      <c r="L16" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1879,7 +1897,7 @@
       <c r="K17" s="39">
         <v>485000</v>
       </c>
-      <c r="L17" s="64">
+      <c r="L17" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1925,7 +1943,7 @@
       <c r="K18" s="39">
         <v>455000</v>
       </c>
-      <c r="L18" s="64">
+      <c r="L18" s="50">
         <f t="shared" si="2"/>
         <v>16380000</v>
       </c>
@@ -1966,7 +1984,7 @@
       <c r="K19" s="39">
         <v>455000</v>
       </c>
-      <c r="L19" s="64">
+      <c r="L19" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2012,7 +2030,7 @@
       <c r="K20" s="39">
         <v>550000</v>
       </c>
-      <c r="L20" s="64">
+      <c r="L20" s="50">
         <f t="shared" si="2"/>
         <v>39600000</v>
       </c>
@@ -2047,11 +2065,11 @@
         <f t="shared" si="1"/>
         <v>57150000</v>
       </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="63">
+      <c r="J21" s="48"/>
+      <c r="K21" s="49">
         <v>450000</v>
       </c>
-      <c r="L21" s="64">
+      <c r="L21" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2061,11 +2079,11 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2087,23 +2105,18 @@
         <f>SUM(I8:I21)</f>
         <v>352700000</v>
       </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="67"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L23" s="67">
+      <c r="L23" s="51">
         <f>SUM(L8:L21)</f>
         <v>84000000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A4:I4"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A22:C22"/>
@@ -2115,6 +2128,11 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.56999999999999995" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2123,12 +2141,574 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="34">
+        <v>3</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34">
+        <v>14</v>
+      </c>
+      <c r="G8" s="35">
+        <f>SUM(D8:F8)</f>
+        <v>17</v>
+      </c>
+      <c r="H8" s="36">
+        <v>225000</v>
+      </c>
+      <c r="I8" s="36">
+        <f>G8*H8</f>
+        <v>3825000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37">
+        <f>32*12</f>
+        <v>384</v>
+      </c>
+      <c r="F9" s="37">
+        <v>45</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
+        <v>429</v>
+      </c>
+      <c r="H9" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I9" s="39">
+        <f t="shared" ref="I9:I21" si="1">G9*H9</f>
+        <v>195195000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37">
+        <v>5</v>
+      </c>
+      <c r="G10" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="39">
+        <v>235000</v>
+      </c>
+      <c r="I10" s="39">
+        <f t="shared" si="1"/>
+        <v>1175000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37">
+        <v>35</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H11" s="39">
+        <v>465000</v>
+      </c>
+      <c r="I11" s="39">
+        <f t="shared" si="1"/>
+        <v>16275000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37">
+        <v>13</v>
+      </c>
+      <c r="G12" s="38">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H12" s="39">
+        <v>245000</v>
+      </c>
+      <c r="I12" s="39">
+        <f t="shared" si="1"/>
+        <v>3185000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="39">
+        <v>475000</v>
+      </c>
+      <c r="I13" s="39">
+        <f t="shared" si="1"/>
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="39">
+        <v>255000</v>
+      </c>
+      <c r="I14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37">
+        <v>2</v>
+      </c>
+      <c r="E15" s="37">
+        <f>12*4</f>
+        <v>48</v>
+      </c>
+      <c r="F15" s="37">
+        <v>25</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H15" s="39">
+        <v>485000</v>
+      </c>
+      <c r="I15" s="39">
+        <f t="shared" si="1"/>
+        <v>36375000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37">
+        <v>7</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H16" s="39">
+        <v>255000</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="1"/>
+        <v>1785000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37">
+        <v>24</v>
+      </c>
+      <c r="F17" s="37">
+        <v>24</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H17" s="39">
+        <v>485000</v>
+      </c>
+      <c r="I17" s="39">
+        <f t="shared" si="1"/>
+        <v>23280000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37">
+        <v>4</v>
+      </c>
+      <c r="E18" s="37">
+        <f>12*3</f>
+        <v>36</v>
+      </c>
+      <c r="F18" s="37">
+        <v>61</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="H18" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I18" s="39">
+        <f t="shared" si="1"/>
+        <v>45955000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37">
+        <v>3</v>
+      </c>
+      <c r="E19" s="37">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+      <c r="F19" s="37">
+        <v>16</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="H19" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I19" s="39">
+        <f t="shared" si="1"/>
+        <v>35945000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="37">
+        <v>3</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37">
+        <v>28</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H20" s="39">
+        <v>550000</v>
+      </c>
+      <c r="I20" s="39">
+        <f t="shared" si="1"/>
+        <v>17050000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40">
+        <v>127</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H21" s="42">
+        <v>450000</v>
+      </c>
+      <c r="I21" s="42">
+        <f t="shared" si="1"/>
+        <v>57150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="43">
+        <f>SUM(D8:D21)</f>
+        <v>16</v>
+      </c>
+      <c r="E22" s="43">
+        <f>SUM(E8:E21)</f>
+        <v>679</v>
+      </c>
+      <c r="F22" s="43">
+        <f>SUM(F8:F21)</f>
+        <v>273</v>
+      </c>
+      <c r="G22" s="43">
+        <f t="shared" si="0"/>
+        <v>968</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="28">
+        <f>SUM(I8:I21)</f>
+        <v>437670000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.27" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="48">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -387,7 +387,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +482,12 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,6 +512,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -518,35 +545,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -854,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,18 +876,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -910,18 +913,18 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -981,15 +984,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1019,28 +1022,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1053,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1232,7 +1235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>32</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>34</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>36</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>38</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>40</v>
       </c>
@@ -1342,12 +1345,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1365,8 +1368,501 @@
         <v>581</v>
       </c>
     </row>
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+    </row>
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="34">
+        <v>3</v>
+      </c>
+      <c r="E27" s="34">
+        <v>42</v>
+      </c>
+      <c r="F27" s="34">
+        <v>14</v>
+      </c>
+      <c r="G27" s="35">
+        <f>SUM(D27:F27)</f>
+        <v>59</v>
+      </c>
+      <c r="H27" s="36">
+        <v>225000</v>
+      </c>
+      <c r="I27" s="36">
+        <f>G27*H27</f>
+        <v>13275000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37">
+        <v>45</v>
+      </c>
+      <c r="G28" s="38">
+        <f t="shared" ref="G28:G41" si="1">SUM(D28:F28)</f>
+        <v>45</v>
+      </c>
+      <c r="H28" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I28" s="39">
+        <f t="shared" ref="I28:I40" si="2">G28*H28</f>
+        <v>20475000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37">
+        <v>7</v>
+      </c>
+      <c r="F29" s="37">
+        <v>5</v>
+      </c>
+      <c r="G29" s="38">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H29" s="39">
+        <v>235000</v>
+      </c>
+      <c r="I29" s="39">
+        <f t="shared" si="2"/>
+        <v>2820000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37">
+        <v>35</v>
+      </c>
+      <c r="G30" s="38">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H30" s="39">
+        <v>465000</v>
+      </c>
+      <c r="I30" s="39">
+        <f t="shared" si="2"/>
+        <v>16275000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37">
+        <v>13</v>
+      </c>
+      <c r="F31" s="37">
+        <v>13</v>
+      </c>
+      <c r="G31" s="38">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H31" s="39">
+        <v>245000</v>
+      </c>
+      <c r="I31" s="39">
+        <f t="shared" si="2"/>
+        <v>6370000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="37">
+        <v>1</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="39">
+        <v>475000</v>
+      </c>
+      <c r="I32" s="39">
+        <f t="shared" si="2"/>
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="39">
+        <v>255000</v>
+      </c>
+      <c r="I33" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="37">
+        <v>3</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37">
+        <v>25</v>
+      </c>
+      <c r="G34" s="38">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H34" s="39">
+        <v>485000</v>
+      </c>
+      <c r="I34" s="39">
+        <f t="shared" si="2"/>
+        <v>13580000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37">
+        <v>7</v>
+      </c>
+      <c r="F35" s="37">
+        <v>7</v>
+      </c>
+      <c r="G35" s="38">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H35" s="39">
+        <v>255000</v>
+      </c>
+      <c r="I35" s="39">
+        <f t="shared" si="2"/>
+        <v>3570000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="37">
+        <v>1</v>
+      </c>
+      <c r="E36" s="37">
+        <v>24</v>
+      </c>
+      <c r="F36" s="37">
+        <v>24</v>
+      </c>
+      <c r="G36" s="38">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="H36" s="39">
+        <v>485000</v>
+      </c>
+      <c r="I36" s="39">
+        <f t="shared" si="2"/>
+        <v>23765000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="37">
+        <v>4</v>
+      </c>
+      <c r="E37" s="37">
+        <f>12*3</f>
+        <v>36</v>
+      </c>
+      <c r="F37" s="37">
+        <v>61</v>
+      </c>
+      <c r="G37" s="38">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="H37" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I37" s="39">
+        <f t="shared" si="2"/>
+        <v>45955000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="37">
+        <v>3</v>
+      </c>
+      <c r="E38" s="37">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+      <c r="F38" s="37">
+        <v>16</v>
+      </c>
+      <c r="G38" s="38">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="H38" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I38" s="39">
+        <f t="shared" si="2"/>
+        <v>35945000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="37">
+        <v>4</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37">
+        <v>28</v>
+      </c>
+      <c r="G39" s="38">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H39" s="39">
+        <v>550000</v>
+      </c>
+      <c r="I39" s="39">
+        <f t="shared" si="2"/>
+        <v>17600000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40">
+        <v>127</v>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="H40" s="42">
+        <v>450000</v>
+      </c>
+      <c r="I40" s="42">
+        <f t="shared" si="2"/>
+        <v>57150000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="43">
+        <f>SUM(D27:D40)</f>
+        <v>19</v>
+      </c>
+      <c r="E41" s="43">
+        <f>SUM(E27:E40)</f>
+        <v>316</v>
+      </c>
+      <c r="F41" s="43">
+        <f>SUM(F27:F40)</f>
+        <v>273</v>
+      </c>
+      <c r="G41" s="43">
+        <f t="shared" si="1"/>
+        <v>608</v>
+      </c>
+      <c r="H41" s="44"/>
+      <c r="I41" s="28">
+        <f>SUM(I27:I40)</f>
+        <v>257255000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+    </row>
+    <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="20">
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1408,34 +1904,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="66" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="67" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
@@ -1449,52 +1945,52 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -1504,12 +2000,12 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -2079,11 +2575,11 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2117,6 +2613,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A22:C22"/>
@@ -2128,11 +2629,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.56999999999999995" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2143,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A6:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2162,34 +2658,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="66" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="67" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -2203,47 +2699,47 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="71" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="67" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2253,9 +2749,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -2658,11 +3154,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2686,11 +3182,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
     <sheet name="25_06" sheetId="2" r:id="rId2"/>
     <sheet name="02-07" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="48">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -153,13 +154,13 @@
     <t>TỔNG HỢP KHO NGÀY 25/06/2020</t>
   </si>
   <si>
-    <t>ĐL Thanh Hóa</t>
-  </si>
-  <si>
     <t>TỔNG HỢP KHO NGÀY 02/07/2020</t>
   </si>
   <si>
     <t>NGƯỜI GIÁM SÁT</t>
+  </si>
+  <si>
+    <t>TỔNG HỢP KHO NGÀY 08/07/2020</t>
   </si>
 </sst>
 </file>
@@ -274,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -342,52 +343,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,17 +439,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,44 +487,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -859,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,23 +822,24 @@
     <col min="4" max="4" width="5.5703125" style="16" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="16"/>
+    <col min="7" max="8" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -913,18 +865,18 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -984,15 +936,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1022,28 +974,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1005,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1346,11 +1298,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1369,46 +1321,46 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68" t="s">
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="67" t="s">
+      <c r="I25" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
@@ -1420,25 +1372,23 @@
       <c r="C27" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="21">
         <v>3</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="21">
         <v>42</v>
       </c>
-      <c r="F27" s="34">
-        <v>14</v>
-      </c>
+      <c r="F27" s="21"/>
       <c r="G27" s="35">
         <f>SUM(D27:F27)</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H27" s="36">
         <v>225000</v>
       </c>
       <c r="I27" s="36">
         <f>G27*H27</f>
-        <v>13275000</v>
+        <v>10125000</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1451,21 +1401,21 @@
       <c r="C28" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37">
-        <v>45</v>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23">
+        <v>1</v>
       </c>
       <c r="G28" s="38">
         <f t="shared" ref="G28:G41" si="1">SUM(D28:F28)</f>
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H28" s="39">
         <v>455000</v>
       </c>
       <c r="I28" s="39">
         <f t="shared" ref="I28:I40" si="2">G28*H28</f>
-        <v>20475000</v>
+        <v>455000</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1478,23 +1428,21 @@
       <c r="C29" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23">
         <v>7</v>
       </c>
-      <c r="F29" s="37">
-        <v>5</v>
-      </c>
+      <c r="F29" s="23"/>
       <c r="G29" s="38">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H29" s="39">
         <v>235000</v>
       </c>
       <c r="I29" s="39">
         <f t="shared" si="2"/>
-        <v>2820000</v>
+        <v>1645000</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1507,21 +1455,19 @@
       <c r="C30" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37">
-        <v>35</v>
-      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="38">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H30" s="39">
         <v>465000</v>
       </c>
       <c r="I30" s="39">
         <f t="shared" si="2"/>
-        <v>16275000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1534,23 +1480,21 @@
       <c r="C31" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23">
         <v>13</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="23"/>
+      <c r="G31" s="38">
+        <f t="shared" si="1"/>
         <v>13</v>
-      </c>
-      <c r="G31" s="38">
-        <f t="shared" si="1"/>
-        <v>26</v>
       </c>
       <c r="H31" s="39">
         <v>245000</v>
       </c>
       <c r="I31" s="39">
         <f t="shared" si="2"/>
-        <v>6370000</v>
+        <v>3185000</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1563,11 +1507,11 @@
       <c r="C32" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="23">
         <v>1</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="38">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1590,9 +1534,9 @@
       <c r="C33" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1615,23 +1559,23 @@
       <c r="C34" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="23">
         <v>3</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37">
-        <v>25</v>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23">
+        <v>49</v>
       </c>
       <c r="G34" s="38">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H34" s="39">
         <v>485000</v>
       </c>
       <c r="I34" s="39">
         <f t="shared" si="2"/>
-        <v>13580000</v>
+        <v>25220000</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1644,23 +1588,21 @@
       <c r="C35" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23">
         <v>7</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="23"/>
+      <c r="G35" s="38">
+        <f t="shared" si="1"/>
         <v>7</v>
-      </c>
-      <c r="G35" s="38">
-        <f t="shared" si="1"/>
-        <v>14</v>
       </c>
       <c r="H35" s="39">
         <v>255000</v>
       </c>
       <c r="I35" s="39">
         <f t="shared" si="2"/>
-        <v>3570000</v>
+        <v>1785000</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1673,25 +1615,21 @@
       <c r="C36" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="23">
         <v>1</v>
       </c>
-      <c r="E36" s="37">
-        <v>24</v>
-      </c>
-      <c r="F36" s="37">
-        <v>24</v>
-      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="38">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H36" s="39">
         <v>485000</v>
       </c>
       <c r="I36" s="39">
         <f t="shared" si="2"/>
-        <v>23765000</v>
+        <v>485000</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1704,26 +1642,25 @@
       <c r="C37" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="23">
         <v>4</v>
       </c>
-      <c r="E37" s="37">
-        <f>12*3</f>
-        <v>36</v>
-      </c>
-      <c r="F37" s="37">
-        <v>61</v>
+      <c r="E37" s="23">
+        <v>124</v>
+      </c>
+      <c r="F37" s="23">
+        <v>58</v>
       </c>
       <c r="G37" s="38">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="H37" s="39">
         <v>455000</v>
       </c>
       <c r="I37" s="39">
         <f t="shared" si="2"/>
-        <v>45955000</v>
+        <v>84630000</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1736,26 +1673,23 @@
       <c r="C38" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="23">
         <v>3</v>
       </c>
-      <c r="E38" s="37">
-        <f>12*5</f>
-        <v>60</v>
-      </c>
-      <c r="F38" s="37">
-        <v>16</v>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23">
+        <v>32</v>
       </c>
       <c r="G38" s="38">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H38" s="39">
         <v>455000</v>
       </c>
       <c r="I38" s="39">
         <f t="shared" si="2"/>
-        <v>35945000</v>
+        <v>15925000</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1768,23 +1702,25 @@
       <c r="C39" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="23">
         <v>4</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37">
-        <v>28</v>
+      <c r="E39" s="23">
+        <v>54</v>
+      </c>
+      <c r="F39" s="23">
+        <v>48</v>
       </c>
       <c r="G39" s="38">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="H39" s="39">
         <v>550000</v>
       </c>
       <c r="I39" s="39">
         <f t="shared" si="2"/>
-        <v>17600000</v>
+        <v>58300000</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1797,11 +1733,11 @@
       <c r="C40" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25">
         <v>127</v>
       </c>
-      <c r="F40" s="40"/>
+      <c r="F40" s="25"/>
       <c r="G40" s="41">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -1815,54 +1751,45 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
       </c>
       <c r="E41" s="43">
         <f>SUM(E27:E40)</f>
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="F41" s="43">
         <f>SUM(F27:F40)</f>
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="G41" s="43">
         <f t="shared" si="1"/>
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="H41" s="44"/>
       <c r="I41" s="28">
         <f>SUM(I27:I40)</f>
-        <v>257255000</v>
+        <v>259380000</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
+      <c r="G43" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1874,6 +1801,15 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1881,15 +1817,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="4.7109375" style="29" bestFit="1" customWidth="1"/>
@@ -1897,43 +1833,40 @@
     <col min="7" max="7" width="13" style="29" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="29"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="62" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="63" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -1944,53 +1877,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67" t="s">
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
+    </row>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2000,14 +1928,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2035,20 +1960,8 @@
         <f>G8*H8</f>
         <v>4275000</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36">
-        <v>225000</v>
-      </c>
-      <c r="L8" s="50">
-        <f>J8*K8</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="29">
-        <f>G8-J8</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2076,23 +1989,8 @@
         <f t="shared" ref="I9:I21" si="1">G9*H9</f>
         <v>124215000</v>
       </c>
-      <c r="J9" s="35">
-        <f>12*3</f>
-        <v>36</v>
-      </c>
-      <c r="K9" s="39">
-        <v>455000</v>
-      </c>
-      <c r="L9" s="50">
-        <f t="shared" ref="L9:L21" si="2">J9*K9</f>
-        <v>16380000</v>
-      </c>
-      <c r="M9" s="29">
-        <f t="shared" ref="M9:M21" si="3">G9-J9</f>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2118,20 +2016,8 @@
         <f t="shared" si="1"/>
         <v>1175000</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="39">
-        <v>235000</v>
-      </c>
-      <c r="L10" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="29">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2155,20 +2041,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="39">
-        <v>465000</v>
-      </c>
-      <c r="L11" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2194,20 +2068,8 @@
         <f t="shared" si="1"/>
         <v>3185000</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="39">
-        <v>245000</v>
-      </c>
-      <c r="L12" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="29">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2233,20 +2095,8 @@
         <f t="shared" si="1"/>
         <v>475000</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="39">
-        <v>475000</v>
-      </c>
-      <c r="L13" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="29">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2270,20 +2120,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="39">
-        <v>255000</v>
-      </c>
-      <c r="L14" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2311,22 +2149,8 @@
         <f t="shared" si="1"/>
         <v>15520000</v>
       </c>
-      <c r="J15" s="35">
-        <v>24</v>
-      </c>
-      <c r="K15" s="39">
-        <v>485000</v>
-      </c>
-      <c r="L15" s="50">
-        <f t="shared" si="2"/>
-        <v>11640000</v>
-      </c>
-      <c r="M15" s="29">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2352,20 +2176,8 @@
         <f t="shared" si="1"/>
         <v>1785000</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="39">
-        <v>255000</v>
-      </c>
-      <c r="L16" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="29">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2389,20 +2201,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="39">
-        <v>485000</v>
-      </c>
-      <c r="L17" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2432,23 +2232,8 @@
         <f t="shared" si="1"/>
         <v>84175000</v>
       </c>
-      <c r="J18" s="35">
-        <f>12*3</f>
-        <v>36</v>
-      </c>
-      <c r="K18" s="39">
-        <v>455000</v>
-      </c>
-      <c r="L18" s="50">
-        <f t="shared" si="2"/>
-        <v>16380000</v>
-      </c>
-      <c r="M18" s="29">
-        <f t="shared" si="3"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2476,20 +2261,8 @@
         <f t="shared" si="1"/>
         <v>4095000</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="39">
-        <v>455000</v>
-      </c>
-      <c r="L19" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="29">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2519,23 +2292,8 @@
         <f t="shared" si="1"/>
         <v>56650000</v>
       </c>
-      <c r="J20" s="35">
-        <f>24*3</f>
-        <v>72</v>
-      </c>
-      <c r="K20" s="39">
-        <v>550000</v>
-      </c>
-      <c r="L20" s="50">
-        <f t="shared" si="2"/>
-        <v>39600000</v>
-      </c>
-      <c r="M20" s="29">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2561,25 +2319,13 @@
         <f t="shared" si="1"/>
         <v>57150000</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="49">
-        <v>450000</v>
-      </c>
-      <c r="L21" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="29">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2601,23 +2347,9 @@
         <f>SUM(I8:I21)</f>
         <v>352700000</v>
       </c>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="51"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L23" s="51">
-        <f>SUM(L8:L21)</f>
-        <v>84000000</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A4:I4"/>
+  <mergeCells count="13">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A22:C22"/>
@@ -2629,6 +2361,8 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.56999999999999995" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2639,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A6:XFD26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2658,34 +2392,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="62" t="s">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="63" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -2699,47 +2433,47 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
+      <c r="A4" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68" t="s">
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2749,9 +2483,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -3154,11 +2888,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -3182,11 +2916,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="G24" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3207,4 +2941,527 @@
   <pageMargins left="0.25" right="0.27" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35">
+        <f>SUM(D8:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="36">
+        <v>225000</v>
+      </c>
+      <c r="I8" s="36">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38">
+        <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I9" s="39">
+        <f t="shared" ref="I9:I21" si="1">G9*H9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="39">
+        <v>235000</v>
+      </c>
+      <c r="I10" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="39">
+        <v>465000</v>
+      </c>
+      <c r="I11" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="39">
+        <v>245000</v>
+      </c>
+      <c r="I12" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="39">
+        <v>475000</v>
+      </c>
+      <c r="I13" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="39">
+        <v>255000</v>
+      </c>
+      <c r="I14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="39">
+        <v>485000</v>
+      </c>
+      <c r="I15" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="39">
+        <v>255000</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="39">
+        <v>485000</v>
+      </c>
+      <c r="I17" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I18" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I19" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="39">
+        <v>550000</v>
+      </c>
+      <c r="I20" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="42">
+        <v>450000</v>
+      </c>
+      <c r="I21" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="43">
+        <f>SUM(D8:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="43">
+        <f>SUM(E8:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="43">
+        <f>SUM(F8:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="28">
+        <f>SUM(I8:I21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -160,7 +160,7 @@
     <t>NGƯỜI GIÁM SÁT</t>
   </si>
   <si>
-    <t>TỔNG HỢP KHO NGÀY 08/07/2020</t>
+    <t>TỔNG HỢP KHO NGÀY 09/07/2020</t>
   </si>
 </sst>
 </file>
@@ -487,20 +487,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1837,34 +1837,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="64" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="65" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
@@ -1878,17 +1878,17 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
@@ -2373,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2399,27 +2399,27 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="65" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -2433,17 +2433,17 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
@@ -2947,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2973,27 +2973,27 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="65" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
@@ -3007,17 +3007,17 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
@@ -3071,19 +3071,23 @@
       <c r="C8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="34">
+        <v>3</v>
+      </c>
       <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="F8" s="34">
+        <v>13</v>
+      </c>
       <c r="G8" s="35">
         <f>SUM(D8:F8)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H8" s="36">
         <v>225000</v>
       </c>
       <c r="I8" s="36">
         <f>G8*H8</f>
-        <v>0</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3097,18 +3101,22 @@
         <v>15</v>
       </c>
       <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="37">
+        <v>348</v>
+      </c>
+      <c r="F9" s="37">
+        <v>43</v>
+      </c>
       <c r="G9" s="38">
         <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="H9" s="39">
         <v>455000</v>
       </c>
       <c r="I9" s="39">
         <f t="shared" ref="I9:I21" si="1">G9*H9</f>
-        <v>0</v>
+        <v>177905000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3123,17 +3131,19 @@
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="37">
+        <v>5</v>
+      </c>
       <c r="G10" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="39">
         <v>235000</v>
       </c>
       <c r="I10" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1175000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3148,17 +3158,19 @@
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="F11" s="37">
+        <v>22</v>
+      </c>
       <c r="G11" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H11" s="39">
         <v>465000</v>
       </c>
       <c r="I11" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10230000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3173,17 +3185,19 @@
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="F12" s="37">
+        <v>13</v>
+      </c>
       <c r="G12" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H12" s="39">
         <v>245000</v>
       </c>
       <c r="I12" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3185000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3246,19 +3260,25 @@
       <c r="C15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="D15" s="37">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37">
+        <v>36</v>
+      </c>
+      <c r="F15" s="37">
+        <v>24</v>
+      </c>
       <c r="G15" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H15" s="39">
         <v>485000</v>
       </c>
       <c r="I15" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29585000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3273,17 +3293,19 @@
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="F16" s="37">
+        <v>7</v>
+      </c>
       <c r="G16" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H16" s="39">
         <v>255000</v>
       </c>
       <c r="I16" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1785000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3297,18 +3319,22 @@
         <v>15</v>
       </c>
       <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="37">
+        <v>24</v>
+      </c>
+      <c r="F17" s="37">
+        <v>23</v>
+      </c>
       <c r="G17" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H17" s="39">
         <v>485000</v>
       </c>
       <c r="I17" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22795000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3321,19 +3347,25 @@
       <c r="C18" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+      <c r="D18" s="37">
+        <v>3</v>
+      </c>
+      <c r="E18" s="37">
+        <v>36</v>
+      </c>
+      <c r="F18" s="37">
+        <v>58</v>
+      </c>
       <c r="G18" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="H18" s="39">
         <v>455000</v>
       </c>
       <c r="I18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44135000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3346,19 +3378,25 @@
       <c r="C19" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="D19" s="37">
+        <v>3</v>
+      </c>
+      <c r="E19" s="37">
+        <v>60</v>
+      </c>
+      <c r="F19" s="37">
+        <v>15</v>
+      </c>
       <c r="G19" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H19" s="39">
         <v>455000</v>
       </c>
       <c r="I19" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35490000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3371,19 +3409,23 @@
       <c r="C20" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="37">
+        <v>3</v>
+      </c>
       <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+      <c r="F20" s="37">
+        <v>28</v>
+      </c>
       <c r="G20" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H20" s="39">
         <v>550000</v>
       </c>
       <c r="I20" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17050000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3397,18 +3439,20 @@
         <v>15</v>
       </c>
       <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="40">
+        <v>127</v>
+      </c>
       <c r="F21" s="40"/>
       <c r="G21" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="H21" s="42">
         <v>450000</v>
       </c>
       <c r="I21" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57150000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3419,24 +3463,24 @@
       <c r="C22" s="52"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E22" s="43">
         <f>SUM(E8:E21)</f>
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="F22" s="43">
         <f>SUM(F8:F21)</f>
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="G22" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="H22" s="44"/>
       <c r="I22" s="28">
         <f>SUM(I8:I21)</f>
-        <v>0</v>
+        <v>404085000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3462,6 +3506,7 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.28999999999999998" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
     <sheet name="25_06" sheetId="2" r:id="rId2"/>
     <sheet name="02-07" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="09-07" sheetId="5" r:id="rId4"/>
+    <sheet name="16-07" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="49">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -161,6 +162,9 @@
   </si>
   <si>
     <t>TỔNG HỢP KHO NGÀY 09/07/2020</t>
+  </si>
+  <si>
+    <t>TỔNG HỢP KHO NGÀY 16/07/2020</t>
   </si>
 </sst>
 </file>
@@ -349,7 +353,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,6 +456,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,30 +495,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -828,18 +838,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -865,18 +875,18 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -936,15 +946,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -974,28 +984,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1005,7 +1015,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="61"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1298,11 +1308,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1321,34 +1331,34 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="54" t="s">
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="61" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1358,9 +1368,9 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
     </row>
     <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
@@ -1751,11 +1761,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -1780,16 +1790,25 @@
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1801,15 +1820,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1837,34 +1847,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
@@ -1878,47 +1888,47 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="61" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -1928,9 +1938,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -2321,11 +2331,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2399,27 +2409,27 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -2433,47 +2443,47 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="54" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="61" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2483,9 +2493,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -2888,11 +2898,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2916,11 +2926,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2947,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2973,27 +2983,27 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
@@ -3007,47 +3017,47 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="54" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="61" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3057,9 +3067,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -3456,11 +3466,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3484,11 +3494,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3509,4 +3519,562 @@
   <pageMargins left="0.28999999999999998" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35">
+        <f>SUM(D8:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="36">
+        <v>225000</v>
+      </c>
+      <c r="I8" s="36">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37">
+        <v>312</v>
+      </c>
+      <c r="F9" s="37">
+        <v>37</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
+        <v>349</v>
+      </c>
+      <c r="H9" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I9" s="39">
+        <f>G9*H9</f>
+        <v>158795000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="39">
+        <v>235000</v>
+      </c>
+      <c r="I10" s="39">
+        <f t="shared" ref="I9:I21" si="1">G10*H10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37">
+        <v>12</v>
+      </c>
+      <c r="F11" s="37">
+        <v>20</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H11" s="39">
+        <v>465000</v>
+      </c>
+      <c r="I11" s="39">
+        <f t="shared" si="1"/>
+        <v>14880000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="39">
+        <v>245000</v>
+      </c>
+      <c r="I12" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="39">
+        <v>475000</v>
+      </c>
+      <c r="I13" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="39">
+        <v>255000</v>
+      </c>
+      <c r="I14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37">
+        <v>12</v>
+      </c>
+      <c r="F15" s="37">
+        <v>20</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H15" s="39">
+        <v>485000</v>
+      </c>
+      <c r="I15" s="39">
+        <f t="shared" si="1"/>
+        <v>16005000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="39">
+        <v>255000</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37">
+        <v>24</v>
+      </c>
+      <c r="F17" s="37">
+        <v>27</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H17" s="39">
+        <v>485000</v>
+      </c>
+      <c r="I17" s="39">
+        <f t="shared" si="1"/>
+        <v>24735000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37">
+        <v>3</v>
+      </c>
+      <c r="E18" s="37">
+        <v>48</v>
+      </c>
+      <c r="F18" s="37">
+        <v>54</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H18" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I18" s="39">
+        <f t="shared" si="1"/>
+        <v>47775000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37">
+        <v>3</v>
+      </c>
+      <c r="E19" s="37">
+        <v>36</v>
+      </c>
+      <c r="F19" s="37">
+        <v>19</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H19" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I19" s="39">
+        <f t="shared" si="1"/>
+        <v>26390000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37">
+        <v>2</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="39">
+        <v>550000</v>
+      </c>
+      <c r="I20" s="39">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40">
+        <v>127</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H21" s="42">
+        <v>450000</v>
+      </c>
+      <c r="I21" s="42">
+        <f t="shared" si="1"/>
+        <v>57150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="43">
+        <f>SUM(D8:D21)</f>
+        <v>7</v>
+      </c>
+      <c r="E22" s="43">
+        <f>SUM(E8:E21)</f>
+        <v>571</v>
+      </c>
+      <c r="F22" s="43">
+        <f>SUM(F8:F21)</f>
+        <v>179</v>
+      </c>
+      <c r="G22" s="43">
+        <f t="shared" si="0"/>
+        <v>757</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="28">
+        <f>SUM(I8:I21)</f>
+        <v>346830000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -164,7 +164,7 @@
     <t>TỔNG HỢP KHO NGÀY 09/07/2020</t>
   </si>
   <si>
-    <t>TỔNG HỢP KHO NGÀY 16/07/2020</t>
+    <t>TỔNG HỢP KHO NGÀY 17/07/2020</t>
   </si>
 </sst>
 </file>
@@ -461,6 +461,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,18 +495,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -838,18 +838,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -875,18 +875,18 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -946,15 +946,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -984,28 +984,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1015,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="59"/>
+      <c r="G7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1308,11 +1308,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1331,34 +1331,34 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="64" t="s">
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="I25" s="53" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1368,9 +1368,9 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
@@ -1761,11 +1761,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -1790,25 +1790,16 @@
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1820,6 +1811,15 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1901,34 +1901,34 @@
       <c r="I4" s="69"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="53" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -1938,9 +1938,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -2331,11 +2331,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2456,34 +2456,34 @@
       <c r="I4" s="69"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="64" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="53" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2493,9 +2493,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -2898,11 +2898,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2926,11 +2926,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3030,34 +3030,34 @@
       <c r="I4" s="69"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="64" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="53" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3067,9 +3067,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -3466,11 +3466,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3494,11 +3494,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3525,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3598,34 +3598,34 @@
       <c r="I4" s="69"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="64" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="53" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3635,9 +3635,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -3714,7 +3714,7 @@
         <v>235000</v>
       </c>
       <c r="I10" s="39">
-        <f t="shared" ref="I9:I21" si="1">G10*H10</f>
+        <f t="shared" ref="I10:I21" si="1">G10*H10</f>
         <v>0</v>
       </c>
     </row>
@@ -3733,18 +3733,18 @@
         <v>12</v>
       </c>
       <c r="F11" s="37">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G11" s="38">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H11" s="39">
         <v>465000</v>
       </c>
       <c r="I11" s="39">
         <f t="shared" si="1"/>
-        <v>14880000</v>
+        <v>11160000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3839,18 +3839,18 @@
         <v>12</v>
       </c>
       <c r="F15" s="37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="38">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="39">
         <v>485000</v>
       </c>
       <c r="I15" s="39">
         <f t="shared" si="1"/>
-        <v>16005000</v>
+        <v>15035000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3955,18 +3955,18 @@
         <v>36</v>
       </c>
       <c r="F19" s="37">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G19" s="38">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H19" s="39">
         <v>455000</v>
       </c>
       <c r="I19" s="39">
         <f t="shared" si="1"/>
-        <v>26390000</v>
+        <v>23660000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4024,11 +4024,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -4039,24 +4039,24 @@
       </c>
       <c r="F22" s="43">
         <f>SUM(F8:F21)</f>
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="G22" s="43">
         <f t="shared" si="0"/>
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="H22" s="44"/>
       <c r="I22" s="28">
         <f>SUM(I8:I21)</f>
-        <v>346830000</v>
+        <v>339410000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
     <sheet name="25_06" sheetId="2" r:id="rId2"/>
     <sheet name="02-07" sheetId="3" r:id="rId3"/>
     <sheet name="09-07" sheetId="5" r:id="rId4"/>
-    <sheet name="16-07" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="56">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -164,18 +164,39 @@
     <t>TỔNG HỢP KHO NGÀY 09/07/2020</t>
   </si>
   <si>
-    <t>TỔNG HỢP KHO NGÀY 17/07/2020</t>
+    <t>TỔNG HỢP KHO NGÀY 19/07/2020</t>
+  </si>
+  <si>
+    <t>Số lượng thùng</t>
+  </si>
+  <si>
+    <t>Dự kiến nhập</t>
+  </si>
+  <si>
+    <t>Dự kiến xuất vào Miền Nam</t>
+  </si>
+  <si>
+    <t>Sau khi xuất vào Miền Nam thì còn lại</t>
+  </si>
+  <si>
+    <t>Số lượng còn lại 3 kho</t>
+  </si>
+  <si>
+    <t>Mang từ kho đi</t>
+  </si>
+  <si>
+    <t>Mang từ bến về</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +285,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +313,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -347,13 +400,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,6 +527,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,30 +563,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,6 +578,55 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -574,7 +689,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,7 +724,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,32 +939,32 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7" style="16" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -874,19 +989,19 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -911,7 +1026,7 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -946,15 +1061,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -984,28 +1099,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1130,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="63"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1308,11 +1423,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1330,35 +1445,35 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="56" t="s">
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="61"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1368,11 +1483,11 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-    </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="64"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>13</v>
       </c>
@@ -1401,7 +1516,7 @@
         <v>10125000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1543,7 @@
         <v>455000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1570,7 @@
         <v>1645000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
@@ -1480,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>22</v>
       </c>
@@ -1507,7 +1622,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>24</v>
       </c>
@@ -1534,7 +1649,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>26</v>
       </c>
@@ -1559,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>28</v>
       </c>
@@ -1588,7 +1703,7 @@
         <v>25220000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
@@ -1615,7 +1730,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>32</v>
       </c>
@@ -1642,7 +1757,7 @@
         <v>485000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
@@ -1673,7 +1788,7 @@
         <v>84630000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
@@ -1702,7 +1817,7 @@
         <v>15925000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>38</v>
       </c>
@@ -1733,7 +1848,7 @@
         <v>58300000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
         <v>40</v>
       </c>
@@ -1760,12 +1875,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -1789,17 +1904,26 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="55" t="s">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G43" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1811,15 +1935,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1833,20 +1948,20 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="29" customWidth="1"/>
     <col min="7" max="7" width="13" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="8" max="8" width="9.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +1976,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="65"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>2</v>
       </c>
@@ -1876,7 +1991,7 @@
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -1887,7 +2002,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="69" t="s">
         <v>44</v>
       </c>
@@ -1900,35 +2015,35 @@
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -1938,11 +2053,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -1971,7 +2086,7 @@
         <v>4275000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +2115,7 @@
         <v>124215000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2027,7 +2142,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2052,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2079,7 +2194,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2106,7 +2221,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2131,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2160,7 +2275,7 @@
         <v>15520000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2187,7 +2302,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2212,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2243,7 +2358,7 @@
         <v>84175000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2272,7 +2387,7 @@
         <v>4095000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2303,7 +2418,7 @@
         <v>56650000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2330,12 +2445,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2387,21 +2502,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2416,7 +2531,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="65"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>2</v>
       </c>
@@ -2431,7 +2546,7 @@
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2442,7 +2557,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="69" t="s">
         <v>45</v>
       </c>
@@ -2455,35 +2570,35 @@
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="56" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2493,11 +2608,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="64"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2526,7 +2641,7 @@
         <v>3825000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2556,7 +2671,7 @@
         <v>195195000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2583,7 +2698,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2610,7 +2725,7 @@
         <v>16275000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2637,7 +2752,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2664,7 +2779,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2689,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2721,7 +2836,7 @@
         <v>36375000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2748,7 +2863,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2777,7 +2892,7 @@
         <v>23280000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2809,7 +2924,7 @@
         <v>45955000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2841,7 +2956,7 @@
         <v>35945000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2870,7 +2985,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2897,12 +3012,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2925,12 +3040,12 @@
         <v>437670000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="55" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2961,21 +3076,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2990,7 +3105,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="65"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>2</v>
       </c>
@@ -3005,7 +3120,7 @@
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -3016,7 +3131,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="69" t="s">
         <v>47</v>
       </c>
@@ -3029,35 +3144,35 @@
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="56" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3067,11 +3182,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="64"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -3100,7 +3215,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -3129,7 +3244,7 @@
         <v>177905000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -3156,7 +3271,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -3183,7 +3298,7 @@
         <v>10230000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -3210,7 +3325,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -3235,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3260,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3291,7 +3406,7 @@
         <v>29585000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3318,7 +3433,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3347,7 +3462,7 @@
         <v>22795000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3378,7 +3493,7 @@
         <v>44135000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3409,7 +3524,7 @@
         <v>35490000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3438,7 +3553,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3465,12 +3580,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3493,12 +3608,12 @@
         <v>404085000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="55" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3523,27 +3638,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3557,8 +3677,9 @@
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="65"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="65"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>2</v>
       </c>
@@ -3572,8 +3693,9 @@
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="66"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -3583,8 +3705,9 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="69" t="s">
         <v>48</v>
       </c>
@@ -3596,36 +3719,56 @@
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="56" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+      <c r="H6" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="87"/>
+      <c r="N6" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3635,37 +3778,61 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="G7" s="64"/>
+      <c r="H7" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="88"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35">
+      <c r="C8" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="80">
         <f>SUM(D8:F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="94"/>
+      <c r="I8" s="95">
         <v>225000</v>
       </c>
-      <c r="I8" s="36">
-        <f>G8*H8</f>
+      <c r="J8" s="95">
+        <f>G8*I8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="37" t="s">
@@ -3676,25 +3843,46 @@
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37">
+        <f>26*12</f>
         <v>312</v>
       </c>
       <c r="F9" s="37">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G9" s="38">
         <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
-        <v>349</v>
-      </c>
-      <c r="H9" s="39">
+        <v>360</v>
+      </c>
+      <c r="H9" s="96">
+        <f>G9/12</f>
+        <v>30</v>
+      </c>
+      <c r="I9" s="97">
         <v>455000</v>
       </c>
-      <c r="I9" s="39">
-        <f>G9*H9</f>
-        <v>158795000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="J9" s="97">
+        <f>G9*I9</f>
+        <v>163800000</v>
+      </c>
+      <c r="K9" s="70"/>
+      <c r="L9" s="71">
+        <v>25</v>
+      </c>
+      <c r="M9" s="72">
+        <f t="shared" ref="M9:M21" si="1">L9*I9*12</f>
+        <v>136500000</v>
+      </c>
+      <c r="N9" s="73">
+        <f>H9+K9-L9</f>
+        <v>5</v>
+      </c>
+      <c r="O9" s="37">
+        <v>25</v>
+      </c>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="37" t="s">
@@ -3710,16 +3898,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="96"/>
+      <c r="I10" s="97">
         <v>235000</v>
       </c>
-      <c r="I10" s="39">
-        <f t="shared" ref="I10:I21" si="1">G10*H10</f>
+      <c r="J10" s="97">
+        <f t="shared" ref="J10:J21" si="2">G10*I10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="37" t="s">
@@ -3733,22 +3928,44 @@
         <v>12</v>
       </c>
       <c r="F11" s="37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="38">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H11" s="39">
+        <v>23</v>
+      </c>
+      <c r="H11" s="96">
+        <f t="shared" ref="H11:H19" si="3">G11/12</f>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="I11" s="97">
         <v>465000</v>
       </c>
-      <c r="I11" s="39">
-        <f t="shared" si="1"/>
-        <v>11160000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="J11" s="97">
+        <f t="shared" si="2"/>
+        <v>10695000</v>
+      </c>
+      <c r="K11" s="70">
+        <v>20</v>
+      </c>
+      <c r="L11" s="71">
+        <v>15</v>
+      </c>
+      <c r="M11" s="72">
+        <f t="shared" si="1"/>
+        <v>83700000</v>
+      </c>
+      <c r="N11" s="73">
+        <f t="shared" ref="N11:N22" si="4">H11+K11-L11</f>
+        <v>6.9166666666666679</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="37" t="s">
@@ -3764,16 +3981,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="96"/>
+      <c r="I12" s="97">
         <v>245000</v>
       </c>
-      <c r="I12" s="39">
-        <f t="shared" si="1"/>
+      <c r="J12" s="97">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -3789,16 +4013,35 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="96"/>
+      <c r="I13" s="97">
         <v>475000</v>
       </c>
-      <c r="I13" s="39">
-        <f t="shared" si="1"/>
+      <c r="J13" s="97">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="K13" s="70">
+        <v>20</v>
+      </c>
+      <c r="L13" s="71">
+        <v>10</v>
+      </c>
+      <c r="M13" s="72">
+        <f t="shared" si="1"/>
+        <v>57000000</v>
+      </c>
+      <c r="N13" s="73">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3814,16 +4057,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="96"/>
+      <c r="I14" s="97">
         <v>255000</v>
       </c>
-      <c r="I14" s="39">
-        <f t="shared" si="1"/>
+      <c r="J14" s="97">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="K14" s="70"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="37" t="s">
@@ -3839,22 +4089,42 @@
         <v>12</v>
       </c>
       <c r="F15" s="37">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="38">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="H15" s="39">
+        <v>36</v>
+      </c>
+      <c r="H15" s="96">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="97">
         <v>485000</v>
       </c>
-      <c r="I15" s="39">
-        <f t="shared" si="1"/>
-        <v>15035000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="J15" s="97">
+        <f t="shared" si="2"/>
+        <v>17460000</v>
+      </c>
+      <c r="K15" s="79">
+        <v>20</v>
+      </c>
+      <c r="L15" s="71">
+        <v>20</v>
+      </c>
+      <c r="M15" s="72">
+        <f t="shared" si="1"/>
+        <v>116400000</v>
+      </c>
+      <c r="N15" s="73">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="37" t="s">
@@ -3870,16 +4140,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="96"/>
+      <c r="I16" s="97">
         <v>255000</v>
       </c>
-      <c r="I16" s="39">
-        <f t="shared" si="1"/>
+      <c r="J16" s="97">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="37" t="s">
@@ -3899,15 +4176,35 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="96">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="I17" s="97">
         <v>485000</v>
       </c>
-      <c r="I17" s="39">
-        <f t="shared" si="1"/>
+      <c r="J17" s="97">
+        <f t="shared" si="2"/>
         <v>24735000</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="70">
+        <v>5</v>
+      </c>
+      <c r="L17" s="71">
+        <v>5</v>
+      </c>
+      <c r="M17" s="72">
+        <f t="shared" si="1"/>
+        <v>29100000</v>
+      </c>
+      <c r="N17" s="73">
+        <f t="shared" si="4"/>
+        <v>4.25</v>
+      </c>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3930,15 +4227,35 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="96">
+        <f t="shared" si="3"/>
+        <v>8.75</v>
+      </c>
+      <c r="I18" s="97">
         <v>455000</v>
       </c>
-      <c r="I18" s="39">
-        <f t="shared" si="1"/>
+      <c r="J18" s="97">
+        <f t="shared" si="2"/>
         <v>47775000</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="70"/>
+      <c r="L18" s="71">
+        <v>7</v>
+      </c>
+      <c r="M18" s="72">
+        <f t="shared" si="1"/>
+        <v>38220000</v>
+      </c>
+      <c r="N18" s="73">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="O18" s="37">
+        <v>7</v>
+      </c>
+      <c r="P18" s="37"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3955,21 +4272,41 @@
         <v>36</v>
       </c>
       <c r="F19" s="37">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G19" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="H19" s="39">
+        <v>62</v>
+      </c>
+      <c r="H19" s="96">
+        <f t="shared" si="3"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="I19" s="97">
         <v>455000</v>
       </c>
-      <c r="I19" s="39">
-        <f t="shared" si="1"/>
-        <v>23660000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="97">
+        <f t="shared" si="2"/>
+        <v>28210000</v>
+      </c>
+      <c r="K19" s="70">
+        <v>20</v>
+      </c>
+      <c r="L19" s="71">
+        <v>20</v>
+      </c>
+      <c r="M19" s="72">
+        <f t="shared" si="1"/>
+        <v>109200000</v>
+      </c>
+      <c r="N19" s="73">
+        <f t="shared" si="4"/>
+        <v>5.1666666666666679</v>
+      </c>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3981,100 +4318,152 @@
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="37">
-        <v>2</v>
-      </c>
+      <c r="F20" s="37"/>
       <c r="G20" s="38">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H20" s="39">
+        <v>0</v>
+      </c>
+      <c r="H20" s="96"/>
+      <c r="I20" s="97">
         <v>550000</v>
       </c>
-      <c r="I20" s="39">
-        <f t="shared" si="1"/>
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="J20" s="97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="70">
+        <v>15</v>
+      </c>
+      <c r="L20" s="71">
+        <v>10</v>
+      </c>
+      <c r="M20" s="72">
+        <f>L20*I20*24</f>
+        <v>132000000</v>
+      </c>
+      <c r="N20" s="73">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40">
+      <c r="C21" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37">
         <v>127</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41">
+      <c r="F21" s="37"/>
+      <c r="G21" s="38">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="96"/>
+      <c r="I21" s="97">
         <v>450000</v>
       </c>
-      <c r="I21" s="42">
-        <f t="shared" si="1"/>
+      <c r="J21" s="97">
+        <f t="shared" si="2"/>
         <v>57150000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="73"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+    </row>
+    <row r="22" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="43">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75">
         <f>SUM(D8:D21)</f>
         <v>7</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="75">
         <f>SUM(E8:E21)</f>
         <v>571</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="75">
         <f>SUM(F8:F21)</f>
-        <v>163</v>
-      </c>
-      <c r="G22" s="43">
-        <f t="shared" si="0"/>
-        <v>741</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="28">
-        <f>SUM(I8:I21)</f>
-        <v>339410000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="75">
+        <f t="shared" si="0"/>
+        <v>764</v>
+      </c>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="100">
+        <f>SUM(J8:J21)</f>
+        <v>349825000</v>
+      </c>
+      <c r="K22" s="76">
+        <f>SUM(K8:K21)</f>
+        <v>100</v>
+      </c>
+      <c r="L22" s="77"/>
+      <c r="M22" s="78">
+        <f>SUM(M8:M21)</f>
+        <v>702120000</v>
+      </c>
+      <c r="N22" s="75">
+        <f>SUM(N8:N21)</f>
+        <v>41.083333333333336</v>
+      </c>
+      <c r="O22" s="41">
+        <f>SUM(O9:O20)</f>
+        <v>32</v>
+      </c>
+      <c r="P22" s="41">
+        <f>SUM(P9:P20)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G24" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="I6:I7"/>
+  <mergeCells count="16">
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:N4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="09-07" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -527,64 +527,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -599,12 +545,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -613,9 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -627,6 +564,69 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -689,7 +689,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,7 +724,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -939,32 +939,32 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7" style="16" customWidth="1"/>
-    <col min="7" max="8" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -989,19 +989,19 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1026,7 +1026,7 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1061,15 +1061,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1099,28 +1099,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+    <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="59"/>
+      <c r="G7" s="90"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1423,11 +1423,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1445,35 +1445,35 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="64" t="s">
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="I25" s="80" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1483,11 +1483,11 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-    </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G26" s="83"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+    </row>
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>10125000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>455000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>1645000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>22</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>24</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>26</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>28</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>25220000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>32</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>485000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>84630000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>15925000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>38</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>58300000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>40</v>
       </c>
@@ -1875,12 +1875,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="62" t="s">
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -1904,26 +1904,17 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G43" s="63" t="s">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1935,6 +1926,15 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1948,50 +1948,50 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="29" customWidth="1"/>
     <col min="7" max="7" width="13" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="8" max="8" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="65" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -2002,48 +2002,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="69" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="80" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="80"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2053,11 +2053,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>4275000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>124215000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>15520000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>84175000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>4095000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>56650000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2445,12 +2445,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2502,21 +2502,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2524,29 +2524,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2557,48 +2557,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="69" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="64" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="80" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="80"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2608,11 +2608,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="83"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>3825000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>195195000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>16275000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>36375000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>23280000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>45955000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>35945000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3012,12 +3012,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -3040,12 +3040,12 @@
         <v>437670000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="63" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3076,21 +3076,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3098,29 +3098,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -3131,48 +3131,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="69" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="64" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="80" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="80"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3182,11 +3182,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="83"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>177905000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>10230000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>29585000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>22795000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>44135000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>35490000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3580,12 +3580,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3608,12 +3608,12 @@
         <v>404085000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="63" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3638,32 +3638,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="29" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="29" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="29"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="29" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="29" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="29" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3671,31 +3671,31 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -3707,68 +3707,68 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="69" t="s">
+    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="64" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="86" t="s">
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="87" t="s">
+      <c r="L6" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="87"/>
-      <c r="N6" s="88" t="s">
+      <c r="M6" s="97"/>
+      <c r="N6" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="64" t="s">
+      <c r="O6" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="64" t="s">
+      <c r="P6" s="83" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+    <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="80"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3778,60 +3778,60 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="93" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-    </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+      <c r="N7" s="98"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="80">
+      <c r="C8" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="62">
         <f>SUM(D8:F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95">
+      <c r="H8" s="73"/>
+      <c r="I8" s="74">
         <v>225000</v>
       </c>
-      <c r="J8" s="95">
+      <c r="J8" s="74">
         <f>G8*I8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
@@ -3853,26 +3853,26 @@
         <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
         <v>360</v>
       </c>
-      <c r="H9" s="96">
+      <c r="H9" s="75">
         <f>G9/12</f>
         <v>30</v>
       </c>
-      <c r="I9" s="97">
+      <c r="I9" s="76">
         <v>455000</v>
       </c>
-      <c r="J9" s="97">
+      <c r="J9" s="76">
         <f>G9*I9</f>
         <v>163800000</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="71">
+      <c r="K9" s="53"/>
+      <c r="L9" s="54">
         <v>25</v>
       </c>
-      <c r="M9" s="72">
+      <c r="M9" s="55">
         <f t="shared" ref="M9:M21" si="1">L9*I9*12</f>
         <v>136500000</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="56">
         <f>H9+K9-L9</f>
         <v>5</v>
       </c>
@@ -3880,8 +3880,12 @@
         <v>25</v>
       </c>
       <c r="P9" s="37"/>
-    </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="29">
+        <f>L9*12</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -3898,22 +3902,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97">
+      <c r="H10" s="75"/>
+      <c r="I10" s="76">
         <v>235000</v>
       </c>
-      <c r="J10" s="97">
+      <c r="J10" s="76">
         <f t="shared" ref="J10:J21" si="2">G10*I10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="73"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="56"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="29">
+        <f t="shared" ref="Q10:Q21" si="3">L10*12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
@@ -3934,37 +3942,41 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H11" s="96">
-        <f t="shared" ref="H11:H19" si="3">G11/12</f>
+      <c r="H11" s="75">
+        <f t="shared" ref="H11:H19" si="4">G11/12</f>
         <v>1.9166666666666667</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="76">
         <v>465000</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="76">
         <f t="shared" si="2"/>
         <v>10695000</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="53">
         <v>20</v>
       </c>
-      <c r="L11" s="71">
-        <v>15</v>
-      </c>
-      <c r="M11" s="72">
+      <c r="L11" s="54">
+        <v>15</v>
+      </c>
+      <c r="M11" s="55">
         <f t="shared" si="1"/>
         <v>83700000</v>
       </c>
-      <c r="N11" s="73">
-        <f t="shared" ref="N11:N22" si="4">H11+K11-L11</f>
+      <c r="N11" s="56">
+        <f t="shared" ref="N11:N20" si="5">H11+K11-L11</f>
         <v>6.9166666666666679</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="37">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="29">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -3981,22 +3993,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97">
+      <c r="H12" s="75"/>
+      <c r="I12" s="76">
         <v>245000</v>
       </c>
-      <c r="J12" s="97">
+      <c r="J12" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="73"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="56"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
@@ -4013,34 +4029,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="96"/>
-      <c r="I13" s="97">
+      <c r="H13" s="75"/>
+      <c r="I13" s="76">
         <v>475000</v>
       </c>
-      <c r="J13" s="97">
+      <c r="J13" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="53">
         <v>20</v>
       </c>
-      <c r="L13" s="71">
+      <c r="L13" s="54">
         <v>10</v>
       </c>
-      <c r="M13" s="72">
+      <c r="M13" s="55">
         <f t="shared" si="1"/>
         <v>57000000</v>
       </c>
-      <c r="N13" s="73">
-        <f t="shared" si="4"/>
+      <c r="N13" s="56">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="37">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="29">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -4057,22 +4077,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97">
+      <c r="H14" s="75"/>
+      <c r="I14" s="76">
         <v>255000</v>
       </c>
-      <c r="J14" s="97">
+      <c r="J14" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="73"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="56"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
@@ -4095,35 +4119,39 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H15" s="96">
-        <f t="shared" si="3"/>
+      <c r="H15" s="75">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I15" s="97">
+      <c r="I15" s="76">
         <v>485000</v>
       </c>
-      <c r="J15" s="97">
+      <c r="J15" s="76">
         <f t="shared" si="2"/>
         <v>17460000</v>
       </c>
-      <c r="K15" s="79">
+      <c r="K15" s="61">
         <v>20</v>
       </c>
-      <c r="L15" s="71">
+      <c r="L15" s="54">
         <v>20</v>
       </c>
-      <c r="M15" s="72">
+      <c r="M15" s="55">
         <f t="shared" si="1"/>
         <v>116400000</v>
       </c>
-      <c r="N15" s="73">
-        <f t="shared" si="4"/>
+      <c r="N15" s="56">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
-    </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="29">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -4140,22 +4168,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97">
+      <c r="H16" s="75"/>
+      <c r="I16" s="76">
         <v>255000</v>
       </c>
-      <c r="J16" s="97">
+      <c r="J16" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="73"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
@@ -4176,35 +4208,39 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="H17" s="96">
-        <f t="shared" si="3"/>
+      <c r="H17" s="75">
+        <f t="shared" si="4"/>
         <v>4.25</v>
       </c>
-      <c r="I17" s="97">
+      <c r="I17" s="76">
         <v>485000</v>
       </c>
-      <c r="J17" s="97">
+      <c r="J17" s="76">
         <f t="shared" si="2"/>
         <v>24735000</v>
       </c>
-      <c r="K17" s="70">
+      <c r="K17" s="53">
         <v>5</v>
       </c>
-      <c r="L17" s="71">
+      <c r="L17" s="54">
         <v>5</v>
       </c>
-      <c r="M17" s="72">
+      <c r="M17" s="55">
         <f t="shared" si="1"/>
         <v>29100000</v>
       </c>
-      <c r="N17" s="73">
-        <f t="shared" si="4"/>
+      <c r="N17" s="56">
+        <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="29">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -4227,35 +4263,39 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H18" s="96">
-        <f t="shared" si="3"/>
+      <c r="H18" s="75">
+        <f t="shared" si="4"/>
         <v>8.75</v>
       </c>
-      <c r="I18" s="97">
+      <c r="I18" s="76">
         <v>455000</v>
       </c>
-      <c r="J18" s="97">
+      <c r="J18" s="76">
         <f t="shared" si="2"/>
         <v>47775000</v>
       </c>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71">
+      <c r="K18" s="53"/>
+      <c r="L18" s="54">
         <v>7</v>
       </c>
-      <c r="M18" s="72">
+      <c r="M18" s="55">
         <f t="shared" si="1"/>
         <v>38220000</v>
       </c>
-      <c r="N18" s="73">
-        <f t="shared" si="4"/>
+      <c r="N18" s="56">
+        <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
       <c r="O18" s="37">
         <v>7</v>
       </c>
       <c r="P18" s="37"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="29">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -4278,35 +4318,39 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="H19" s="96">
-        <f t="shared" si="3"/>
+      <c r="H19" s="75">
+        <f t="shared" si="4"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="I19" s="97">
+      <c r="I19" s="76">
         <v>455000</v>
       </c>
-      <c r="J19" s="97">
+      <c r="J19" s="76">
         <f t="shared" si="2"/>
         <v>28210000</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="53">
         <v>20</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="54">
         <v>20</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M19" s="55">
         <f t="shared" si="1"/>
         <v>109200000</v>
       </c>
-      <c r="N19" s="73">
-        <f t="shared" si="4"/>
+      <c r="N19" s="56">
+        <f t="shared" si="5"/>
         <v>5.1666666666666679</v>
       </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="29">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -4323,34 +4367,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="96"/>
-      <c r="I20" s="97">
+      <c r="H20" s="75"/>
+      <c r="I20" s="76">
         <v>550000</v>
       </c>
-      <c r="J20" s="97">
+      <c r="J20" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="70">
-        <v>15</v>
-      </c>
-      <c r="L20" s="71">
+      <c r="K20" s="53">
+        <v>15</v>
+      </c>
+      <c r="L20" s="54">
         <v>10</v>
       </c>
-      <c r="M20" s="72">
+      <c r="M20" s="55">
         <f>L20*I20*24</f>
         <v>132000000</v>
       </c>
-      <c r="N20" s="73">
-        <f t="shared" si="4"/>
+      <c r="N20" s="56">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="29">
+        <f>L20*24</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
@@ -4369,62 +4417,69 @@
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="H21" s="96"/>
-      <c r="I21" s="97">
+      <c r="H21" s="75"/>
+      <c r="I21" s="76">
         <v>450000</v>
       </c>
-      <c r="J21" s="97">
+      <c r="J21" s="76">
         <f t="shared" si="2"/>
         <v>57150000</v>
       </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72">
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N21" s="73"/>
+      <c r="N21" s="56"/>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
-    </row>
-    <row r="22" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="74" t="s">
+      <c r="Q21" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75">
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="57">
         <f>SUM(D8:D21)</f>
         <v>7</v>
       </c>
-      <c r="E22" s="75">
+      <c r="E22" s="57">
         <f>SUM(E8:E21)</f>
         <v>571</v>
       </c>
-      <c r="F22" s="75">
+      <c r="F22" s="57">
         <f>SUM(F8:F21)</f>
         <v>186</v>
       </c>
-      <c r="G22" s="75">
+      <c r="G22" s="57">
         <f t="shared" si="0"/>
         <v>764</v>
       </c>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100">
+      <c r="H22" s="77"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79">
         <f>SUM(J8:J21)</f>
         <v>349825000</v>
       </c>
-      <c r="K22" s="76">
+      <c r="K22" s="58">
         <f>SUM(K8:K21)</f>
         <v>100</v>
       </c>
-      <c r="L22" s="77"/>
-      <c r="M22" s="78">
+      <c r="L22" s="59">
+        <f>SUM(L9:L20)</f>
+        <v>112</v>
+      </c>
+      <c r="M22" s="60">
         <f>SUM(M8:M21)</f>
         <v>702120000</v>
       </c>
-      <c r="N22" s="75">
+      <c r="N22" s="57">
         <f>SUM(N8:N21)</f>
         <v>41.083333333333336</v>
       </c>
@@ -4436,22 +4491,21 @@
         <f>SUM(P9:P20)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G24" s="63" t="s">
+      <c r="Q22" s="29">
+        <f>SUM(Q9:Q21)</f>
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G24" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:E2"/>
@@ -4463,6 +4517,11 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="O6:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
     <sheet name="25_06" sheetId="2" r:id="rId2"/>
     <sheet name="02-07" sheetId="3" r:id="rId3"/>
     <sheet name="09-07" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Miền Nam" sheetId="7" r:id="rId5"/>
+    <sheet name="Duy nhất" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="63">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -186,17 +188,38 @@
   </si>
   <si>
     <t>Mang từ bến về</t>
+  </si>
+  <si>
+    <t>Đại lý Duy Nhất</t>
+  </si>
+  <si>
+    <t>Đã Chuyển đại lý ngày 17/7/20</t>
+  </si>
+  <si>
+    <t>Số lượng (thùng)</t>
+  </si>
+  <si>
+    <t>Chuẩn bị xuất</t>
+  </si>
+  <si>
+    <t>Tổng 9 thùng :</t>
+  </si>
+  <si>
+    <t>Tổng 9 thùng&gt;50tr =&gt; thưởng 25tr hàng số 1 (số lượng hộp)</t>
+  </si>
+  <si>
+    <t>4 thùng, 7 hộp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +322,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -332,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -413,13 +443,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,6 +666,33 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,30 +705,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,6 +720,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -624,9 +732,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -689,7 +822,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,7 +857,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -939,32 +1072,32 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7" style="16" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -989,19 +1122,19 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1026,7 +1159,7 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1061,15 +1194,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1099,28 +1232,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
+    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1263,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="90"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1423,11 +1556,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1445,35 +1578,35 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="83" t="s">
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="80" t="s">
+      <c r="H25" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="80" t="s">
+      <c r="I25" s="89" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="89"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1483,11 +1616,11 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-    </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="92"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+    </row>
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1649,7 @@
         <v>10125000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +1676,7 @@
         <v>455000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1703,7 @@
         <v>1645000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
@@ -1595,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>22</v>
       </c>
@@ -1622,7 +1755,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>24</v>
       </c>
@@ -1649,7 +1782,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>26</v>
       </c>
@@ -1674,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>28</v>
       </c>
@@ -1703,7 +1836,7 @@
         <v>25220000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
@@ -1730,7 +1863,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>32</v>
       </c>
@@ -1757,7 +1890,7 @@
         <v>485000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
@@ -1788,7 +1921,7 @@
         <v>84630000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
@@ -1817,7 +1950,7 @@
         <v>15925000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>38</v>
       </c>
@@ -1848,7 +1981,7 @@
         <v>58300000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
         <v>40</v>
       </c>
@@ -1875,12 +2008,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="81" t="s">
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -1904,17 +2037,26 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="82" t="s">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G43" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1926,15 +2068,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1948,50 +2081,50 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="29" customWidth="1"/>
     <col min="7" max="7" width="13" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="8" max="8" width="9.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="92" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="93" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -2002,48 +2135,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80" t="s">
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="89" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="89"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2053,11 +2186,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2086,7 +2219,7 @@
         <v>4275000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2115,7 +2248,7 @@
         <v>124215000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2142,7 +2275,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2167,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2194,7 +2327,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2221,7 +2354,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2246,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2275,7 +2408,7 @@
         <v>15520000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2302,7 +2435,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2327,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2358,7 +2491,7 @@
         <v>84175000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2387,7 +2520,7 @@
         <v>4095000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2418,7 +2551,7 @@
         <v>56650000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2445,12 +2578,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2502,21 +2635,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2524,29 +2657,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="93" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2557,48 +2690,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="83" t="s">
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="89" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="89"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2608,11 +2741,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="92"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2641,7 +2774,7 @@
         <v>3825000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2671,7 +2804,7 @@
         <v>195195000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2698,7 +2831,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2858,7 @@
         <v>16275000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2752,7 +2885,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2779,7 +2912,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2804,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2836,7 +2969,7 @@
         <v>36375000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2863,7 +2996,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2892,7 +3025,7 @@
         <v>23280000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2924,7 +3057,7 @@
         <v>45955000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2956,7 +3089,7 @@
         <v>35945000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2985,7 +3118,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3012,12 +3145,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -3040,12 +3173,12 @@
         <v>437670000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="82" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3076,21 +3209,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3098,29 +3231,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="93" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -3131,48 +3264,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="83" t="s">
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="89" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="89"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3182,11 +3315,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="92"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -3215,7 +3348,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -3244,7 +3377,7 @@
         <v>177905000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -3271,7 +3404,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -3298,7 +3431,7 @@
         <v>10230000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -3325,7 +3458,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -3350,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3375,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3406,7 +3539,7 @@
         <v>29585000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3433,7 +3566,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3462,7 +3595,7 @@
         <v>22795000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3493,7 +3626,7 @@
         <v>44135000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3524,7 +3657,7 @@
         <v>35490000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3553,7 +3686,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3580,12 +3713,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3608,12 +3741,12 @@
         <v>404085000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="82" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3640,30 +3773,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="29" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="29" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="29" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="29" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="29" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="29" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="29" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3671,31 +3804,31 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="93" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -3707,68 +3840,68 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+    <row r="4" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="83" t="s">
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
       <c r="K6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="97" t="s">
+      <c r="L6" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="97"/>
-      <c r="N6" s="98" t="s">
+      <c r="M6" s="99"/>
+      <c r="N6" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="83" t="s">
+      <c r="P6" s="92" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
+    <row r="7" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="89"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3778,7 +3911,7 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="83"/>
+      <c r="G7" s="92"/>
       <c r="H7" s="72" t="s">
         <v>49</v>
       </c>
@@ -3795,11 +3928,11 @@
       <c r="M7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="98"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="100"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
@@ -3831,7 +3964,7 @@
       <c r="O8" s="63"/>
       <c r="P8" s="63"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
@@ -3885,7 +4018,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -3921,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
@@ -3976,7 +4109,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -4012,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
@@ -4060,7 +4193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -4096,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
@@ -4151,7 +4284,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -4187,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
@@ -4240,7 +4373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -4295,7 +4428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -4350,7 +4483,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -4398,7 +4531,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
@@ -4439,12 +4572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="99" t="s">
+    <row r="22" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="57">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -4496,16 +4629,19 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G24" s="82" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G24" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:E2"/>
@@ -4519,10 +4655,568 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="O6:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="29"/>
+    <col min="11" max="11" width="13.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="103"/>
+      <c r="G6" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="89"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="100"/>
+      <c r="J7" s="92"/>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="74">
+        <v>225000</v>
+      </c>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74" t="e">
+        <f>#REF!*D8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="76">
+        <v>455000</v>
+      </c>
+      <c r="E9" s="76">
+        <v>2</v>
+      </c>
+      <c r="F9" s="76">
+        <f>E9*12*D9</f>
+        <v>10920000</v>
+      </c>
+      <c r="G9" s="54">
+        <v>3</v>
+      </c>
+      <c r="H9" s="55">
+        <f>G9*D9*12</f>
+        <v>16380000</v>
+      </c>
+      <c r="I9" s="116">
+        <f>25000000/D9</f>
+        <v>54.945054945054942</v>
+      </c>
+      <c r="J9" s="117">
+        <f>I9/12</f>
+        <v>4.5787545787545785</v>
+      </c>
+      <c r="K9" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="119">
+        <f>4*D9*12+7*D9</f>
+        <v>25025000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="76">
+        <v>235000</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76">
+        <f t="shared" ref="F10:F21" si="0">E10*12*D10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="76">
+        <v>465000</v>
+      </c>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="54">
+        <v>1</v>
+      </c>
+      <c r="H11" s="108">
+        <f>G11*D11*12</f>
+        <v>5580000</v>
+      </c>
+      <c r="I11" s="112"/>
+      <c r="J11" s="110"/>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="76">
+        <v>245000</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="110"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="76">
+        <v>475000</v>
+      </c>
+      <c r="E13" s="76">
+        <v>1</v>
+      </c>
+      <c r="F13" s="76">
+        <f t="shared" si="0"/>
+        <v>5700000</v>
+      </c>
+      <c r="G13" s="54">
+        <v>1</v>
+      </c>
+      <c r="H13" s="108">
+        <f>G13*D13*12</f>
+        <v>5700000</v>
+      </c>
+      <c r="I13" s="112"/>
+      <c r="J13" s="110"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="76">
+        <v>255000</v>
+      </c>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="110"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="76">
+        <v>485000</v>
+      </c>
+      <c r="E15" s="76">
+        <v>1</v>
+      </c>
+      <c r="F15" s="76">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="108">
+        <f>G15*D15*12</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="112"/>
+      <c r="J15" s="110"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="76">
+        <v>255000</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="110"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="76">
+        <v>485000</v>
+      </c>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="108">
+        <f>G17*D17*12</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="112"/>
+      <c r="J17" s="110"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="76">
+        <v>455000</v>
+      </c>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="108">
+        <f>G18*D18*12</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="112"/>
+      <c r="J18" s="110"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="76">
+        <v>455000</v>
+      </c>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="108">
+        <f>G19*D19*12</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="112"/>
+      <c r="J19" s="110"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="76">
+        <v>550000</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="108">
+        <f>G20*D20*24</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="112"/>
+      <c r="J20" s="110"/>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="76">
+        <v>450000</v>
+      </c>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="108">
+        <f>G21*D21*12</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="112"/>
+      <c r="J21" s="110"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78">
+        <f>SUM(E9:E21)</f>
+        <v>4</v>
+      </c>
+      <c r="F22" s="79">
+        <f>SUM(F9:F21)</f>
+        <v>22440000</v>
+      </c>
+      <c r="G22" s="59">
+        <f>SUM(G9:G20)</f>
+        <v>5</v>
+      </c>
+      <c r="H22" s="109">
+        <f>SUM(H8:H21)</f>
+        <v>27660000</v>
+      </c>
+      <c r="I22" s="113"/>
+      <c r="J22" s="111"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D24" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="106">
+        <f>F22+H22</f>
+        <v>50100000</v>
+      </c>
+      <c r="H24" s="105"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="09-07" sheetId="5" r:id="rId4"/>
     <sheet name="Miền Nam" sheetId="7" r:id="rId5"/>
     <sheet name="Duy nhất" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId7"/>
+    <sheet name="24-7" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="75">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -209,12 +209,48 @@
   </si>
   <si>
     <t>4 thùng, 7 hộp</t>
+  </si>
+  <si>
+    <t>Tổng cộng (hộp)</t>
+  </si>
+  <si>
+    <t>Tổng cộng (thùng)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 hộp </t>
+  </si>
+  <si>
+    <t>1 thùng</t>
+  </si>
+  <si>
+    <t>2 thùng 3 hộp</t>
+  </si>
+  <si>
+    <t>7 thùng 8 hộp</t>
+  </si>
+  <si>
+    <t>4 thùng 2 hộp</t>
+  </si>
+  <si>
+    <t>TỔNG HỢP KHO NGÀY 24/07/2020</t>
+  </si>
+  <si>
+    <t>4 thùng 14 hộp</t>
+  </si>
+  <si>
+    <t>6 hộp</t>
+  </si>
+  <si>
+    <t>4 thùng 8 hộp</t>
+  </si>
+  <si>
+    <t>7 thùng 7 hộp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -362,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -515,13 +551,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,69 +731,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -740,12 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -760,6 +759,81 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -822,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,7 +931,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1072,32 +1146,32 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7" style="16" customWidth="1"/>
-    <col min="7" max="8" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1122,19 +1196,19 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1159,7 +1233,7 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1194,15 +1268,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1232,28 +1306,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87" t="s">
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
+    <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1337,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="87"/>
+      <c r="G7" s="105"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1556,11 +1630,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1578,35 +1652,35 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="89" t="s">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="92" t="s">
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="89" t="s">
+      <c r="H25" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="89" t="s">
+      <c r="I25" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="107"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1616,11 +1690,11 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="92"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-    </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G26" s="110"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+    </row>
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>13</v>
       </c>
@@ -1649,7 +1723,7 @@
         <v>10125000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>16</v>
       </c>
@@ -1676,7 +1750,7 @@
         <v>455000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1777,7 @@
         <v>1645000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>22</v>
       </c>
@@ -1755,7 +1829,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>24</v>
       </c>
@@ -1782,7 +1856,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>26</v>
       </c>
@@ -1807,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>28</v>
       </c>
@@ -1836,7 +1910,7 @@
         <v>25220000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
@@ -1863,7 +1937,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>32</v>
       </c>
@@ -1890,7 +1964,7 @@
         <v>485000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
@@ -1921,7 +1995,7 @@
         <v>84630000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
@@ -1950,7 +2024,7 @@
         <v>15925000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>38</v>
       </c>
@@ -1981,7 +2055,7 @@
         <v>58300000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>40</v>
       </c>
@@ -2008,12 +2082,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="90" t="s">
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -2037,12 +2111,12 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G43" s="91" t="s">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
@@ -2081,50 +2155,50 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="29" customWidth="1"/>
     <col min="7" max="7" width="13" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="8" max="8" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="93" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="94" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -2135,48 +2209,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="97" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89" t="s">
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2186,11 +2260,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2219,7 +2293,7 @@
         <v>4275000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2248,7 +2322,7 @@
         <v>124215000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2275,7 +2349,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2300,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2327,7 +2401,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2354,7 +2428,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2379,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2408,7 +2482,7 @@
         <v>15520000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2435,7 +2509,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2460,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2491,7 +2565,7 @@
         <v>84175000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2520,7 +2594,7 @@
         <v>4095000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2551,7 +2625,7 @@
         <v>56650000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2578,12 +2652,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="90" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2635,21 +2709,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2657,29 +2731,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="94" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2690,48 +2764,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="97" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="92" t="s">
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2741,11 +2815,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="110"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2774,7 +2848,7 @@
         <v>3825000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2804,7 +2878,7 @@
         <v>195195000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2831,7 +2905,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2858,7 +2932,7 @@
         <v>16275000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2885,7 +2959,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2912,7 +2986,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2937,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2969,7 +3043,7 @@
         <v>36375000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2996,7 +3070,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3025,7 +3099,7 @@
         <v>23280000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3057,7 +3131,7 @@
         <v>45955000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3089,7 +3163,7 @@
         <v>35945000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3118,7 +3192,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3145,12 +3219,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="90" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -3173,12 +3247,12 @@
         <v>437670000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="91" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3209,21 +3283,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3231,29 +3305,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="94" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -3264,48 +3338,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="97" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="92" t="s">
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3315,11 +3389,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="110"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -3348,7 +3422,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -3377,7 +3451,7 @@
         <v>177905000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -3404,7 +3478,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -3431,7 +3505,7 @@
         <v>10230000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -3458,7 +3532,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -3483,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3508,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3539,7 +3613,7 @@
         <v>29585000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3566,7 +3640,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3595,7 +3669,7 @@
         <v>22795000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3626,7 +3700,7 @@
         <v>44135000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3657,7 +3731,7 @@
         <v>35490000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3686,7 +3760,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3713,12 +3787,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="90" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3741,12 +3815,12 @@
         <v>404085000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="91" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3777,26 +3851,26 @@
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="29" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="29" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="29" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="29" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="29" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="29" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3804,31 +3878,31 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="94" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -3840,68 +3914,68 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="97" t="s">
+    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="92" t="s">
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
       <c r="K6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="99" t="s">
+      <c r="L6" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="99"/>
-      <c r="N6" s="100" t="s">
+      <c r="M6" s="118"/>
+      <c r="N6" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="92" t="s">
+      <c r="O6" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="92" t="s">
+      <c r="P6" s="110" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
+    <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3911,7 +3985,7 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="92"/>
+      <c r="G7" s="110"/>
       <c r="H7" s="72" t="s">
         <v>49</v>
       </c>
@@ -3928,11 +4002,11 @@
       <c r="M7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="100"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="119"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
@@ -3964,7 +4038,7 @@
       <c r="O8" s="63"/>
       <c r="P8" s="63"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
@@ -4018,7 +4092,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -4054,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
@@ -4109,7 +4183,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -4145,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
@@ -4193,7 +4267,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -4229,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
@@ -4284,7 +4358,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -4320,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
@@ -4373,7 +4447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -4428,7 +4502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -4483,7 +4557,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -4531,7 +4605,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
@@ -4572,12 +4646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="101" t="s">
+    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="57">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -4629,13 +4703,13 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G24" s="91" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G24" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4668,43 +4742,43 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="29"/>
-    <col min="11" max="11" width="13.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="29"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="29"/>
+    <col min="11" max="11" width="13.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="80"/>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -4712,51 +4786,51 @@
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="97" t="s">
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="110" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="99" t="s">
+      <c r="F6" s="84"/>
+      <c r="G6" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100" t="s">
+      <c r="H6" s="118"/>
+      <c r="I6" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="110" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
+    <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="72"/>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="85" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="72" t="s">
@@ -4768,10 +4842,10 @@
       <c r="H7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="100"/>
-      <c r="J7" s="92"/>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="119"/>
+      <c r="J7" s="110"/>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
@@ -4791,10 +4865,10 @@
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="66"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="93"/>
+      <c r="J8" s="94"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
@@ -4821,23 +4895,23 @@
         <f>G9*D9*12</f>
         <v>16380000</v>
       </c>
-      <c r="I9" s="116">
+      <c r="I9" s="95">
         <f>25000000/D9</f>
         <v>54.945054945054942</v>
       </c>
-      <c r="J9" s="117">
+      <c r="J9" s="96">
         <f>I9/12</f>
         <v>4.5787545787545785</v>
       </c>
-      <c r="K9" s="118" t="s">
+      <c r="K9" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="119">
+      <c r="L9" s="98">
         <f>4*D9*12+7*D9</f>
         <v>25025000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -4857,10 +4931,10 @@
       </c>
       <c r="G10" s="54"/>
       <c r="H10" s="55"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
@@ -4881,14 +4955,14 @@
       <c r="G11" s="54">
         <v>1</v>
       </c>
-      <c r="H11" s="108">
+      <c r="H11" s="87">
         <f>G11*D11*12</f>
         <v>5580000</v>
       </c>
-      <c r="I11" s="112"/>
-      <c r="J11" s="110"/>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="91"/>
+      <c r="J11" s="89"/>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -4907,11 +4981,11 @@
         <v>0</v>
       </c>
       <c r="G12" s="54"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="110"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H12" s="87"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="89"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
@@ -4934,14 +5008,14 @@
       <c r="G13" s="54">
         <v>1</v>
       </c>
-      <c r="H13" s="108">
+      <c r="H13" s="87">
         <f>G13*D13*12</f>
         <v>5700000</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="110"/>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="91"/>
+      <c r="J13" s="89"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -4960,11 +5034,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="54"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="110"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H14" s="87"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
@@ -4985,14 +5059,14 @@
         <v>5820000</v>
       </c>
       <c r="G15" s="54"/>
-      <c r="H15" s="108">
+      <c r="H15" s="87">
         <f>G15*D15*12</f>
         <v>0</v>
       </c>
-      <c r="I15" s="112"/>
-      <c r="J15" s="110"/>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="91"/>
+      <c r="J15" s="89"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -5011,11 +5085,11 @@
         <v>0</v>
       </c>
       <c r="G16" s="54"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="110"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H16" s="87"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="89"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
@@ -5034,14 +5108,14 @@
         <v>0</v>
       </c>
       <c r="G17" s="54"/>
-      <c r="H17" s="108">
+      <c r="H17" s="87">
         <f>G17*D17*12</f>
         <v>0</v>
       </c>
-      <c r="I17" s="112"/>
-      <c r="J17" s="110"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I17" s="91"/>
+      <c r="J17" s="89"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -5060,14 +5134,14 @@
         <v>0</v>
       </c>
       <c r="G18" s="54"/>
-      <c r="H18" s="108">
+      <c r="H18" s="87">
         <f>G18*D18*12</f>
         <v>0</v>
       </c>
-      <c r="I18" s="112"/>
-      <c r="J18" s="110"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I18" s="91"/>
+      <c r="J18" s="89"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -5086,14 +5160,14 @@
         <v>0</v>
       </c>
       <c r="G19" s="54"/>
-      <c r="H19" s="108">
+      <c r="H19" s="87">
         <f>G19*D19*12</f>
         <v>0</v>
       </c>
-      <c r="I19" s="112"/>
-      <c r="J19" s="110"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I19" s="91"/>
+      <c r="J19" s="89"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -5112,14 +5186,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="54"/>
-      <c r="H20" s="108">
+      <c r="H20" s="87">
         <f>G20*D20*24</f>
         <v>0</v>
       </c>
-      <c r="I20" s="112"/>
-      <c r="J20" s="110"/>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="91"/>
+      <c r="J20" s="89"/>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
@@ -5138,19 +5212,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="54"/>
-      <c r="H21" s="108">
+      <c r="H21" s="87">
         <f>G21*D21*12</f>
         <v>0</v>
       </c>
-      <c r="I21" s="112"/>
-      <c r="J21" s="110"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="101" t="s">
+      <c r="I21" s="91"/>
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="78"/>
       <c r="E22" s="78">
         <f>SUM(E9:E21)</f>
@@ -5164,27 +5238,27 @@
         <f>SUM(G9:G20)</f>
         <v>5</v>
       </c>
-      <c r="H22" s="109">
+      <c r="H22" s="88">
         <f>SUM(H8:H21)</f>
         <v>27660000</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="111"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="D24" s="105" t="s">
+      <c r="I22" s="92"/>
+      <c r="J22" s="90"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D24" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106">
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="121">
         <f>F22+H22</f>
         <v>50100000</v>
       </c>
-      <c r="H24" s="105"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M25" s="107"/>
+      <c r="H24" s="120"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5209,14 +5283,599 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="107" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="110"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34">
+        <v>3</v>
+      </c>
+      <c r="G8" s="35">
+        <f>SUM(D8:F8)</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="36">
+        <v>225000</v>
+      </c>
+      <c r="J8" s="36">
+        <f>G8*I8</f>
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37">
+        <v>6</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
+        <v>6</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="39">
+        <v>455000</v>
+      </c>
+      <c r="J9" s="39">
+        <f t="shared" ref="J9:J21" si="1">G9*I9</f>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39">
+        <v>235000</v>
+      </c>
+      <c r="J10" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37">
+        <v>36</v>
+      </c>
+      <c r="F11" s="37">
+        <v>20</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="39">
+        <v>465000</v>
+      </c>
+      <c r="J11" s="39">
+        <f t="shared" si="1"/>
+        <v>26040000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39">
+        <v>245000</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37">
+        <f>7*12</f>
+        <v>84</v>
+      </c>
+      <c r="F13" s="37">
+        <v>7</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="39">
+        <v>475000</v>
+      </c>
+      <c r="J13" s="39">
+        <f t="shared" si="1"/>
+        <v>43225000</v>
+      </c>
+      <c r="M13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39">
+        <v>255000</v>
+      </c>
+      <c r="J14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37">
+        <v>11</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="39">
+        <v>485000</v>
+      </c>
+      <c r="J15" s="39">
+        <f t="shared" si="1"/>
+        <v>5820000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39">
+        <v>255000</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37">
+        <v>27</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="39">
+        <v>485000</v>
+      </c>
+      <c r="J17" s="39">
+        <f t="shared" si="1"/>
+        <v>13095000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37">
+        <v>3</v>
+      </c>
+      <c r="E18" s="37">
+        <v>36</v>
+      </c>
+      <c r="F18" s="37">
+        <f>22+6+25</f>
+        <v>53</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="39">
+        <v>455000</v>
+      </c>
+      <c r="J18" s="39">
+        <f t="shared" si="1"/>
+        <v>41860000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37">
+        <v>3</v>
+      </c>
+      <c r="E19" s="37">
+        <v>24</v>
+      </c>
+      <c r="F19" s="37">
+        <f>13+10</f>
+        <v>23</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="39">
+        <v>455000</v>
+      </c>
+      <c r="J19" s="39">
+        <f t="shared" si="1"/>
+        <v>22750000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37">
+        <f>24*4</f>
+        <v>96</v>
+      </c>
+      <c r="F20" s="37">
+        <v>14</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="39">
+        <v>550000</v>
+      </c>
+      <c r="J20" s="39">
+        <f t="shared" si="1"/>
+        <v>60500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40">
+        <v>127</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42">
+        <v>450000</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" si="1"/>
+        <v>57150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="43">
+        <f>SUM(D8:D21)</f>
+        <v>7</v>
+      </c>
+      <c r="E22" s="43">
+        <f>SUM(E8:E21)</f>
+        <v>403</v>
+      </c>
+      <c r="F22" s="43">
+        <f>SUM(F8:F21)</f>
+        <v>164</v>
+      </c>
+      <c r="G22" s="43">
+        <f t="shared" si="0"/>
+        <v>574</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="28">
+        <f>SUM(J8:J21)</f>
+        <v>273845000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Duy nhất" sheetId="8" r:id="rId6"/>
     <sheet name="24-7" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -232,25 +232,25 @@
     <t>4 thùng 2 hộp</t>
   </si>
   <si>
-    <t>TỔNG HỢP KHO NGÀY 24/07/2020</t>
-  </si>
-  <si>
-    <t>4 thùng 14 hộp</t>
-  </si>
-  <si>
     <t>6 hộp</t>
   </si>
   <si>
-    <t>4 thùng 8 hộp</t>
-  </si>
-  <si>
-    <t>7 thùng 7 hộp</t>
+    <t>TỔNG HỢP KHO NGÀY 25/07/2020</t>
+  </si>
+  <si>
+    <t>4 thùng 15 hộp</t>
+  </si>
+  <si>
+    <t>3 thùng 8 hộp</t>
+  </si>
+  <si>
+    <t>6 thùng 7 hộp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -759,6 +759,18 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,18 +793,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -896,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -931,7 +931,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1146,32 +1146,32 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7" style="16" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1196,19 +1196,19 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1233,7 +1233,7 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1268,15 +1268,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1306,28 +1306,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105" t="s">
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
+    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="105"/>
+      <c r="G7" s="109"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1630,11 +1630,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1652,35 +1652,35 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="107" t="s">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="110" t="s">
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="107" t="s">
+      <c r="H25" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="107" t="s">
+      <c r="I25" s="99" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="99"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1690,11 +1690,11 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="110"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-    </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="102"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+    </row>
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>13</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>10125000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>16</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>455000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>18</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>1645000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>22</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>26</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>28</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>25220000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>32</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>485000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>84630000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>15925000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>38</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>58300000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
         <v>40</v>
       </c>
@@ -2082,12 +2082,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="108" t="s">
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -2111,26 +2111,17 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="109" t="s">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G43" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -2142,6 +2133,15 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2155,20 +2155,20 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="29" customWidth="1"/>
     <col min="7" max="7" width="13" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="8" max="8" width="9.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="H1" s="111"/>
       <c r="I1" s="111"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="H2" s="112"/>
       <c r="I2" s="112"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -2209,7 +2209,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="115" t="s">
         <v>44</v>
       </c>
@@ -2222,35 +2222,35 @@
       <c r="H4" s="115"/>
       <c r="I4" s="115"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107" t="s">
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="99" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="99"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2260,11 +2260,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>4275000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>124215000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>15520000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>84175000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>4095000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>56650000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2652,12 +2652,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2709,21 +2709,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="H1" s="111"/>
       <c r="I1" s="111"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="H2" s="112"/>
       <c r="I2" s="112"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2764,7 +2764,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="115" t="s">
         <v>45</v>
       </c>
@@ -2777,35 +2777,35 @@
       <c r="H4" s="115"/>
       <c r="I4" s="115"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="110" t="s">
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="99" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="99"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2815,11 +2815,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="102"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>3825000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>195195000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>16275000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>36375000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>23280000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>45955000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>35945000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3219,12 +3219,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -3247,12 +3247,12 @@
         <v>437670000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="109" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3283,21 +3283,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="H1" s="111"/>
       <c r="I1" s="111"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="H2" s="112"/>
       <c r="I2" s="112"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -3338,7 +3338,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="115" t="s">
         <v>47</v>
       </c>
@@ -3351,35 +3351,35 @@
       <c r="H4" s="115"/>
       <c r="I4" s="115"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="110" t="s">
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="99" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="99"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3389,11 +3389,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="102"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>177905000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>10230000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>29585000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>22795000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>44135000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>35490000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3787,12 +3787,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3815,12 +3815,12 @@
         <v>404085000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="109" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3851,26 +3851,26 @@
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="29" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="29" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="29" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="29" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="29" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="29" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="29" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="I1" s="111"/>
       <c r="J1" s="111"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="I2" s="112"/>
       <c r="J2" s="112"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -3914,7 +3914,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="115" t="s">
         <v>48</v>
       </c>
@@ -3932,22 +3932,22 @@
       <c r="M4" s="115"/>
       <c r="N4" s="115"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="110" t="s">
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="102" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="117" t="s">
@@ -3965,17 +3965,17 @@
       <c r="N6" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="110" t="s">
+      <c r="O6" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="110" t="s">
+      <c r="P6" s="102" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
+    <row r="7" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="99"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3985,7 +3985,7 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="110"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="72" t="s">
         <v>49</v>
       </c>
@@ -4003,10 +4003,10 @@
         <v>43</v>
       </c>
       <c r="N7" s="119"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
@@ -4038,7 +4038,7 @@
       <c r="O8" s="63"/>
       <c r="P8" s="63"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="116" t="s">
         <v>9</v>
       </c>
@@ -4703,13 +4703,13 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G24" s="109" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G24" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4742,23 +4742,23 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="29"/>
-    <col min="11" max="11" width="13.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="29"/>
+    <col min="11" max="11" width="13.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -4768,7 +4768,7 @@
       <c r="E1" s="111"/>
       <c r="F1" s="111"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="E2" s="112"/>
       <c r="F2" s="112"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="80"/>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -4786,7 +4786,7 @@
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="115" t="s">
         <v>56</v>
       </c>
@@ -4799,14 +4799,14 @@
       <c r="H4" s="115"/>
       <c r="I4" s="115"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="72"/>
@@ -4821,14 +4821,14 @@
       <c r="I6" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="102" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
+    <row r="7" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="99"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="72"/>
       <c r="E7" s="85" t="s">
         <v>58</v>
@@ -4843,9 +4843,9 @@
         <v>43</v>
       </c>
       <c r="I7" s="119"/>
-      <c r="J7" s="110"/>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="102"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
@@ -4868,7 +4868,7 @@
       <c r="I8" s="93"/>
       <c r="J8" s="94"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>25025000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="I10" s="93"/>
       <c r="J10" s="94"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="I11" s="91"/>
       <c r="J11" s="89"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -4985,7 +4985,7 @@
       <c r="I12" s="91"/>
       <c r="J12" s="89"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="I13" s="91"/>
       <c r="J13" s="89"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -5038,7 +5038,7 @@
       <c r="I14" s="91"/>
       <c r="J14" s="89"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
@@ -5066,7 +5066,7 @@
       <c r="I15" s="91"/>
       <c r="J15" s="89"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -5089,7 +5089,7 @@
       <c r="I16" s="91"/>
       <c r="J16" s="89"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="I17" s="91"/>
       <c r="J17" s="89"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -5141,7 +5141,7 @@
       <c r="I18" s="91"/>
       <c r="J18" s="89"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="I19" s="91"/>
       <c r="J19" s="89"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="I20" s="91"/>
       <c r="J20" s="89"/>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
@@ -5219,7 +5219,7 @@
       <c r="I21" s="91"/>
       <c r="J21" s="89"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="116" t="s">
         <v>9</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="I22" s="92"/>
       <c r="J22" s="90"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="D24" s="120" t="s">
         <v>60</v>
       </c>
@@ -5257,16 +5257,11 @@
       </c>
       <c r="H24" s="120"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M25" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -5275,6 +5270,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5286,25 +5286,25 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="I1" s="111"/>
       <c r="J1" s="111"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="I2" s="112"/>
       <c r="J2" s="112"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
       <c r="B3" s="82"/>
       <c r="C3" s="82"/>
@@ -5348,9 +5348,9 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="115" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="115"/>
       <c r="C4" s="115"/>
@@ -5362,38 +5362,38 @@
       <c r="I4" s="115"/>
       <c r="J4" s="115"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="110" t="s">
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="102" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="107" t="s">
+      <c r="J6" s="99" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
+    <row r="7" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="99"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -5403,12 +5403,12 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="110"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="123"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>675000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I9" s="39">
         <v>455000</v>
@@ -5468,7 +5468,7 @@
         <v>2730000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -5503,14 +5503,14 @@
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F11" s="37">
         <v>20</v>
       </c>
       <c r="G11" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>73</v>
@@ -5520,10 +5520,10 @@
       </c>
       <c r="J11" s="39">
         <f t="shared" si="1"/>
-        <v>26040000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20460000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -5558,15 +5558,15 @@
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37">
-        <f>7*12</f>
-        <v>84</v>
+        <f>6*12</f>
+        <v>72</v>
       </c>
       <c r="F13" s="37">
         <v>7</v>
       </c>
       <c r="G13" s="38">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>74</v>
@@ -5576,13 +5576,13 @@
       </c>
       <c r="J13" s="39">
         <f t="shared" si="1"/>
-        <v>43225000</v>
+        <v>37525000</v>
       </c>
       <c r="M13" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>5820000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>13095000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>41860000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>22750000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -5776,24 +5776,24 @@
         <v>96</v>
       </c>
       <c r="F20" s="37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="38">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" s="39">
         <v>550000</v>
       </c>
       <c r="J20" s="39">
         <f t="shared" si="1"/>
-        <v>60500000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61050000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -5821,42 +5821,42 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>7</v>
       </c>
       <c r="E22" s="43">
         <f>SUM(E8:E21)</f>
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="F22" s="43">
         <f>SUM(F8:F21)</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G22" s="43">
         <f t="shared" si="0"/>
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="H22" s="43"/>
       <c r="I22" s="44"/>
       <c r="J22" s="28">
         <f>SUM(J8:J21)</f>
-        <v>273845000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G24" s="109" t="s">
+        <v>263115000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G24" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Duy nhất" sheetId="8" r:id="rId6"/>
     <sheet name="24-7" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="78">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -245,12 +245,21 @@
   </si>
   <si>
     <t>6 thùng 7 hộp</t>
+  </si>
+  <si>
+    <t>Xuất ĐL Thanh Hóa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thành tiền </t>
+  </si>
+  <si>
+    <t>Số lượng (hộp)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -583,7 +592,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,6 +768,39 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,6 +869,9 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -896,7 +941,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -931,7 +976,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1146,32 +1191,32 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7" style="16" customWidth="1"/>
-    <col min="7" max="8" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="105" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1196,19 +1241,19 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1233,7 +1278,7 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1268,15 +1313,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1306,28 +1351,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
+    <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="120"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1337,7 +1382,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="109"/>
+      <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1630,11 +1675,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1652,35 +1697,35 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="99" t="s">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="102" t="s">
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="99" t="s">
+      <c r="H25" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="99" t="s">
+      <c r="I25" s="110" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="110"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1690,11 +1735,11 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="102"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-    </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G26" s="113"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+    </row>
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>13</v>
       </c>
@@ -1723,7 +1768,7 @@
         <v>10125000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>16</v>
       </c>
@@ -1750,7 +1795,7 @@
         <v>455000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>18</v>
       </c>
@@ -1777,7 +1822,7 @@
         <v>1645000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
@@ -1802,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>22</v>
       </c>
@@ -1829,7 +1874,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1901,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>26</v>
       </c>
@@ -1881,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>28</v>
       </c>
@@ -1910,7 +1955,7 @@
         <v>25220000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
@@ -1937,7 +1982,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>32</v>
       </c>
@@ -1964,7 +2009,7 @@
         <v>485000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
@@ -1995,7 +2040,7 @@
         <v>84630000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
@@ -2024,7 +2069,7 @@
         <v>15925000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>38</v>
       </c>
@@ -2055,7 +2100,7 @@
         <v>58300000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>40</v>
       </c>
@@ -2082,12 +2127,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="100" t="s">
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -2111,12 +2156,12 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G43" s="101" t="s">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
@@ -2155,50 +2200,50 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="29" customWidth="1"/>
     <col min="7" max="7" width="13" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="8" max="8" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="111" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="112" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -2209,48 +2254,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="115" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99" t="s">
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="99" t="s">
+      <c r="H6" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="110" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2260,11 +2305,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2293,7 +2338,7 @@
         <v>4275000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2322,7 +2367,7 @@
         <v>124215000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2349,7 +2394,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2374,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2401,7 +2446,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2428,7 +2473,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2453,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2482,7 +2527,7 @@
         <v>15520000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2509,7 +2554,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2534,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2565,7 +2610,7 @@
         <v>84175000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2594,7 +2639,7 @@
         <v>4095000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2625,7 +2670,7 @@
         <v>56650000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2652,12 +2697,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="100" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2709,21 +2754,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2731,29 +2776,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="112" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2764,48 +2809,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="115" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="102" t="s">
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="99" t="s">
+      <c r="H6" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="110" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2815,11 +2860,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="113"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2848,7 +2893,7 @@
         <v>3825000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2878,7 +2923,7 @@
         <v>195195000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2905,7 +2950,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2932,7 +2977,7 @@
         <v>16275000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2959,7 +3004,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2986,7 +3031,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3011,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3043,7 +3088,7 @@
         <v>36375000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3070,7 +3115,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3099,7 +3144,7 @@
         <v>23280000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3131,7 +3176,7 @@
         <v>45955000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3163,7 +3208,7 @@
         <v>35945000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3192,7 +3237,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3219,12 +3264,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="100" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -3247,12 +3292,12 @@
         <v>437670000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="101" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3283,21 +3328,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3305,29 +3350,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="112" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -3338,48 +3383,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="115" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="102" t="s">
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="99" t="s">
+      <c r="H6" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="110" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3389,11 +3434,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="113"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -3422,7 +3467,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -3451,7 +3496,7 @@
         <v>177905000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -3478,7 +3523,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -3505,7 +3550,7 @@
         <v>10230000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -3532,7 +3577,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -3557,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3582,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3613,7 +3658,7 @@
         <v>29585000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3640,7 +3685,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3669,7 +3714,7 @@
         <v>22795000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3700,7 +3745,7 @@
         <v>44135000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3731,7 +3776,7 @@
         <v>35490000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3760,7 +3805,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3787,12 +3832,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="100" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3815,12 +3860,12 @@
         <v>404085000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="101" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3851,26 +3896,26 @@
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="29" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="29" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="29" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="29" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="29" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="29" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3878,31 +3923,31 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="112" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -3914,68 +3959,68 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="115" t="s">
+    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="102" t="s">
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
       <c r="K6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="118" t="s">
+      <c r="L6" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="119" t="s">
+      <c r="M6" s="129"/>
+      <c r="N6" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="102" t="s">
+      <c r="O6" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="102" t="s">
+      <c r="P6" s="113" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
+    <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3985,7 +4030,7 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="102"/>
+      <c r="G7" s="113"/>
       <c r="H7" s="72" t="s">
         <v>49</v>
       </c>
@@ -4002,11 +4047,11 @@
       <c r="M7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="130"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
@@ -4038,7 +4083,7 @@
       <c r="O8" s="63"/>
       <c r="P8" s="63"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
@@ -4092,7 +4137,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -4128,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
@@ -4183,7 +4228,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -4219,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
@@ -4267,7 +4312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -4303,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
@@ -4358,7 +4403,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -4394,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
@@ -4447,7 +4492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -4502,7 +4547,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -4557,7 +4602,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -4605,7 +4650,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
@@ -4646,12 +4691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="116" t="s">
+    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="57">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -4703,13 +4748,13 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G24" s="101" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G24" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4742,43 +4787,43 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="29"/>
-    <col min="11" max="11" width="13.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="29"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="29"/>
+    <col min="11" max="11" width="13.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="80"/>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -4786,27 +4831,27 @@
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="115" t="s">
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="113" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="72"/>
@@ -4814,21 +4859,21 @@
         <v>57</v>
       </c>
       <c r="F6" s="84"/>
-      <c r="G6" s="118" t="s">
+      <c r="G6" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119" t="s">
+      <c r="H6" s="129"/>
+      <c r="I6" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="113" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
+    <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="72"/>
       <c r="E7" s="85" t="s">
         <v>58</v>
@@ -4842,10 +4887,10 @@
       <c r="H7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="102"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="130"/>
+      <c r="J7" s="113"/>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
@@ -4868,7 +4913,7 @@
       <c r="I8" s="93"/>
       <c r="J8" s="94"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
@@ -4911,7 +4956,7 @@
         <v>25025000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -4934,7 +4979,7 @@
       <c r="I10" s="93"/>
       <c r="J10" s="94"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
@@ -4962,7 +5007,7 @@
       <c r="I11" s="91"/>
       <c r="J11" s="89"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -4985,7 +5030,7 @@
       <c r="I12" s="91"/>
       <c r="J12" s="89"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
@@ -5015,7 +5060,7 @@
       <c r="I13" s="91"/>
       <c r="J13" s="89"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -5038,7 +5083,7 @@
       <c r="I14" s="91"/>
       <c r="J14" s="89"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
@@ -5066,7 +5111,7 @@
       <c r="I15" s="91"/>
       <c r="J15" s="89"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -5089,7 +5134,7 @@
       <c r="I16" s="91"/>
       <c r="J16" s="89"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
@@ -5115,7 +5160,7 @@
       <c r="I17" s="91"/>
       <c r="J17" s="89"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -5141,7 +5186,7 @@
       <c r="I18" s="91"/>
       <c r="J18" s="89"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -5167,7 +5212,7 @@
       <c r="I19" s="91"/>
       <c r="J19" s="89"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -5193,7 +5238,7 @@
       <c r="I20" s="91"/>
       <c r="J20" s="89"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
@@ -5219,12 +5264,12 @@
       <c r="I21" s="91"/>
       <c r="J21" s="89"/>
     </row>
-    <row r="22" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="116" t="s">
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="78"/>
       <c r="E22" s="78">
         <f>SUM(E9:E21)</f>
@@ -5245,19 +5290,19 @@
       <c r="I22" s="92"/>
       <c r="J22" s="90"/>
     </row>
-    <row r="24" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="D24" s="120" t="s">
+    <row r="24" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D24" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="121">
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="132">
         <f>F22+H22</f>
         <v>50100000</v>
       </c>
-      <c r="H24" s="120"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H24" s="131"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M25" s="86"/>
     </row>
   </sheetData>
@@ -5286,25 +5331,28 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="29" customWidth="1"/>
+    <col min="13" max="13" width="14" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5312,31 +5360,31 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="112" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
       <c r="B3" s="82"/>
       <c r="C3" s="82"/>
@@ -5348,52 +5396,57 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="115" t="s">
+    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="102" t="s">
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="99" t="s">
+      <c r="J6" s="110" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
+      <c r="K6" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+    </row>
+    <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -5403,12 +5456,21 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G7" s="113"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="109" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -5437,8 +5499,11 @@
         <f>G8*I8</f>
         <v>675000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -5467,8 +5532,11 @@
         <f t="shared" ref="J9:J21" si="1">G9*I9</f>
         <v>2730000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="105"/>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -5490,8 +5558,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="106">
+        <f t="shared" ref="M10:M20" si="2">I10*K10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -5522,8 +5596,19 @@
         <f t="shared" si="1"/>
         <v>20460000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K11" s="102">
+        <v>24</v>
+      </c>
+      <c r="L11" s="102">
+        <f>K11/12</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="106">
+        <f t="shared" si="2"/>
+        <v>11160000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -5545,8 +5630,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K12" s="102"/>
+      <c r="L12" s="102">
+        <f t="shared" ref="L12:L19" si="3">K12/12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -5578,11 +5672,19 @@
         <f t="shared" si="1"/>
         <v>37525000</v>
       </c>
-      <c r="M13" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K13" s="102">
+        <v>36</v>
+      </c>
+      <c r="L13" s="102">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M13" s="106">
+        <f t="shared" si="2"/>
+        <v>17100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -5604,8 +5706,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K14" s="102"/>
+      <c r="L14" s="102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -5636,8 +5747,14 @@
         <f t="shared" si="1"/>
         <v>5820000</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -5659,8 +5776,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="102"/>
+      <c r="L16" s="102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -5689,8 +5815,19 @@
         <f t="shared" si="1"/>
         <v>13095000</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="102">
+        <v>24</v>
+      </c>
+      <c r="L17" s="102">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="106">
+        <f t="shared" si="2"/>
+        <v>11640000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -5724,8 +5861,19 @@
         <f t="shared" si="1"/>
         <v>41860000</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="102">
+        <v>48</v>
+      </c>
+      <c r="L18" s="102">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M18" s="106">
+        <f t="shared" si="2"/>
+        <v>21840000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -5759,8 +5907,19 @@
         <f t="shared" si="1"/>
         <v>22750000</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="102">
+        <v>36</v>
+      </c>
+      <c r="L19" s="102">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M19" s="106">
+        <f t="shared" si="2"/>
+        <v>16380000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -5792,8 +5951,19 @@
         <f t="shared" si="1"/>
         <v>61050000</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="103">
+        <v>48</v>
+      </c>
+      <c r="L20" s="103">
+        <f>K20/24</f>
+        <v>2</v>
+      </c>
+      <c r="M20" s="107">
+        <f t="shared" si="2"/>
+        <v>26400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -5820,13 +5990,16 @@
         <f t="shared" si="1"/>
         <v>57150000</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="100" t="s">
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="99"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -5849,21 +6022,29 @@
         <f>SUM(J8:J21)</f>
         <v>263115000</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G24" s="101" t="s">
+      <c r="K22" s="104">
+        <f>SUM(K9:K20)</f>
+        <v>216</v>
+      </c>
+      <c r="L22" s="104">
+        <f>SUM(L11:L21)</f>
+        <v>16</v>
+      </c>
+      <c r="M22" s="108">
+        <f>SUM(M9:M20)</f>
+        <v>104520000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G24" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="H6:H7"/>
+  <mergeCells count="15">
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -5874,6 +6055,11 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Miền Nam" sheetId="7" r:id="rId5"/>
     <sheet name="Duy nhất" sheetId="8" r:id="rId6"/>
     <sheet name="24-7" sheetId="9" r:id="rId7"/>
+    <sheet name="11-8" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="79">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -254,6 +255,9 @@
   </si>
   <si>
     <t>Số lượng (hộp)</t>
+  </si>
+  <si>
+    <t>TỔNG HỢP KHO NGÀY 11/8/2020</t>
   </si>
 </sst>
 </file>
@@ -592,7 +596,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -802,6 +806,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -811,30 +845,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1205,18 +1215,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1242,18 +1252,18 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1313,15 +1323,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1351,28 +1361,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120" t="s">
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1382,7 +1392,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="120"/>
+      <c r="G7" s="118"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1675,11 +1685,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1698,34 +1708,34 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="113" t="s">
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="110" t="s">
+      <c r="H25" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="110" t="s">
+      <c r="I25" s="120" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1735,9 +1745,9 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="113"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
@@ -2128,11 +2138,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="111" t="s">
+      <c r="A41" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -2157,16 +2167,25 @@
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="112" t="s">
+      <c r="G43" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -2178,15 +2197,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2214,34 +2224,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="122" t="s">
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="123" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
@@ -2255,47 +2265,47 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="120" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2305,9 +2315,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -2698,11 +2708,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2776,27 +2786,27 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="123" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -2810,47 +2820,47 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="113" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="120" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2860,9 +2870,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -3265,11 +3275,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -3293,11 +3303,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="112" t="s">
+      <c r="G24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3350,27 +3360,27 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="123" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
@@ -3384,47 +3394,47 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="113" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="120" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3434,9 +3444,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -3833,11 +3843,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3861,11 +3871,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="112" t="s">
+      <c r="G24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3923,29 +3933,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="123" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
@@ -3960,67 +3970,67 @@
       <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="113" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
       <c r="K6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="129" t="s">
+      <c r="L6" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="129"/>
-      <c r="N6" s="130" t="s">
+      <c r="M6" s="131"/>
+      <c r="N6" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="113" t="s">
+      <c r="O6" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="113" t="s">
+      <c r="P6" s="123" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -4030,7 +4040,7 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="113"/>
+      <c r="G7" s="123"/>
       <c r="H7" s="72" t="s">
         <v>49</v>
       </c>
@@ -4047,9 +4057,9 @@
       <c r="M7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="130"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
     </row>
     <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
@@ -4692,11 +4702,11 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="57">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -4749,12 +4759,12 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G24" s="112" t="s">
+      <c r="G24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4809,19 +4819,19 @@
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="80"/>
@@ -4832,26 +4842,26 @@
       <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="72"/>
@@ -4859,21 +4869,21 @@
         <v>57</v>
       </c>
       <c r="F6" s="84"/>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="130" t="s">
+      <c r="H6" s="131"/>
+      <c r="I6" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="123" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="72"/>
       <c r="E7" s="85" t="s">
         <v>58</v>
@@ -4887,8 +4897,8 @@
       <c r="H7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="130"/>
-      <c r="J7" s="113"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
@@ -5265,11 +5275,11 @@
       <c r="J21" s="89"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="78"/>
       <c r="E22" s="78">
         <f>SUM(E9:E21)</f>
@@ -5291,22 +5301,27 @@
       <c r="J22" s="90"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="D24" s="131" t="s">
+      <c r="D24" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="132">
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="134">
         <f>F22+H22</f>
         <v>50100000</v>
       </c>
-      <c r="H24" s="131"/>
+      <c r="H24" s="133"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M25" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -5315,11 +5330,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5330,8 +5340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5360,29 +5370,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="123" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
@@ -5397,56 +5407,56 @@
       <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="113" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="H6" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="133" t="s">
+      <c r="K6" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
     </row>
     <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -5456,10 +5466,10 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
       <c r="K7" s="68" t="s">
         <v>77</v>
       </c>
@@ -5995,11 +6005,11 @@
       <c r="M21" s="99"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -6036,15 +6046,20 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G24" s="112" t="s">
+      <c r="G24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -6055,13 +6070,627 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="136" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="123"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34">
+        <v>168</v>
+      </c>
+      <c r="F8" s="34">
+        <v>3</v>
+      </c>
+      <c r="G8" s="35">
+        <f>SUM(D8:F8)</f>
+        <v>171</v>
+      </c>
+      <c r="H8" s="35">
+        <f>G8/24</f>
+        <v>7.125</v>
+      </c>
+      <c r="I8" s="36">
+        <v>225000</v>
+      </c>
+      <c r="J8" s="36">
+        <f>G8*I8</f>
+        <v>38475000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37">
+        <v>228</v>
+      </c>
+      <c r="F9" s="37">
+        <v>18</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
+        <v>246</v>
+      </c>
+      <c r="H9" s="38">
+        <f>G9/12</f>
+        <v>20.5</v>
+      </c>
+      <c r="I9" s="39">
+        <v>455000</v>
+      </c>
+      <c r="J9" s="39">
+        <f t="shared" ref="J9:J21" si="1">G9*I9</f>
+        <v>111930000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39">
+        <v>235000</v>
+      </c>
+      <c r="J10" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37">
+        <v>132</v>
+      </c>
+      <c r="F11" s="37">
+        <v>26</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="H11" s="38">
+        <f>G11/12</f>
+        <v>13.166666666666666</v>
+      </c>
+      <c r="I11" s="39">
+        <v>465000</v>
+      </c>
+      <c r="J11" s="39">
+        <f t="shared" si="1"/>
+        <v>73470000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38">
+        <f t="shared" ref="H12:H19" si="2">G12/12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="39">
+        <v>245000</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37">
+        <v>48</v>
+      </c>
+      <c r="F13" s="37">
+        <v>28</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="H13" s="38">
+        <f t="shared" si="2"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="I13" s="39">
+        <v>475000</v>
+      </c>
+      <c r="J13" s="39">
+        <f t="shared" si="1"/>
+        <v>36100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="39">
+        <v>255000</v>
+      </c>
+      <c r="J14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37">
+        <v>12</v>
+      </c>
+      <c r="F15" s="37">
+        <v>22</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H15" s="38">
+        <f t="shared" si="2"/>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="I15" s="39">
+        <v>485000</v>
+      </c>
+      <c r="J15" s="39">
+        <f t="shared" si="1"/>
+        <v>16975000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="39">
+        <v>255000</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37">
+        <v>24</v>
+      </c>
+      <c r="F17" s="37">
+        <v>11</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H17" s="38">
+        <f t="shared" si="2"/>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="I17" s="39">
+        <v>485000</v>
+      </c>
+      <c r="J17" s="39">
+        <f t="shared" si="1"/>
+        <v>16975000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37">
+        <v>1</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0</v>
+      </c>
+      <c r="F18" s="37">
+        <v>22</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H18" s="38">
+        <f t="shared" si="2"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="I18" s="39">
+        <v>455000</v>
+      </c>
+      <c r="J18" s="39">
+        <f t="shared" si="1"/>
+        <v>10465000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37">
+        <v>3</v>
+      </c>
+      <c r="E19" s="37">
+        <v>84</v>
+      </c>
+      <c r="F19" s="37">
+        <v>18</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H19" s="38">
+        <f t="shared" si="2"/>
+        <v>8.75</v>
+      </c>
+      <c r="I19" s="39">
+        <v>455000</v>
+      </c>
+      <c r="J19" s="39">
+        <f t="shared" si="1"/>
+        <v>47775000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="37">
+        <v>22</v>
+      </c>
+      <c r="E20" s="37">
+        <v>48</v>
+      </c>
+      <c r="F20" s="37">
+        <v>12</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="H20" s="38">
+        <f>G20/24</f>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="I20" s="39">
+        <v>550000</v>
+      </c>
+      <c r="J20" s="39">
+        <f t="shared" si="1"/>
+        <v>45100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40">
+        <v>127</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42">
+        <v>450000</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" si="1"/>
+        <v>57150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="43">
+        <f>SUM(D8:D21)</f>
+        <v>27</v>
+      </c>
+      <c r="E22" s="43">
+        <f>SUM(E8:E21)</f>
+        <v>871</v>
+      </c>
+      <c r="F22" s="43">
+        <f>SUM(F8:F21)</f>
+        <v>160</v>
+      </c>
+      <c r="G22" s="43">
+        <f t="shared" si="0"/>
+        <v>1058</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="28">
+        <f>SUM(J8:J21)</f>
+        <v>454415000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="24-7" sheetId="9" r:id="rId7"/>
     <sheet name="11-8" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="83">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -258,12 +258,24 @@
   </si>
   <si>
     <t>TỔNG HỢP KHO NGÀY 11/8/2020</t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>anh công</t>
+  </si>
+  <si>
+    <t>khách lẻ 1</t>
+  </si>
+  <si>
+    <t>khách lẻ 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -811,6 +823,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -833,18 +857,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -951,7 +963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,7 +998,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1201,32 +1213,32 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7" style="16" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1251,19 +1263,19 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1288,7 +1300,7 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1323,15 +1335,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1361,28 +1373,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
+    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1404,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="118"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1685,11 +1697,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1707,35 +1719,35 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="120" t="s">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="123" t="s">
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="120" t="s">
+      <c r="H25" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="120" t="s">
+      <c r="I25" s="112" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="120"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="112"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1745,11 +1757,11 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="123"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-    </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="115"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+    </row>
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>10125000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>16</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>455000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>18</v>
       </c>
@@ -1832,7 +1844,7 @@
         <v>1645000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
@@ -1857,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>22</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>24</v>
       </c>
@@ -1911,7 +1923,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>26</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>28</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>25220000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
@@ -1992,7 +2004,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>32</v>
       </c>
@@ -2019,7 +2031,7 @@
         <v>485000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>84630000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
@@ -2079,7 +2091,7 @@
         <v>15925000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>38</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>58300000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
         <v>40</v>
       </c>
@@ -2137,12 +2149,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="121" t="s">
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -2166,26 +2178,17 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="122" t="s">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G43" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -2197,6 +2200,15 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2210,20 +2222,20 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="29" customWidth="1"/>
     <col min="7" max="7" width="13" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="8" max="8" width="9.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
@@ -2238,7 +2250,7 @@
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
@@ -2253,7 +2265,7 @@
       <c r="H2" s="125"/>
       <c r="I2" s="125"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -2264,7 +2276,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="128" t="s">
         <v>44</v>
       </c>
@@ -2277,35 +2289,35 @@
       <c r="H4" s="128"/>
       <c r="I4" s="128"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="112" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2315,11 +2327,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>4275000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>124215000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2404,7 +2416,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2508,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2537,7 +2549,7 @@
         <v>15520000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2564,7 +2576,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2620,7 +2632,7 @@
         <v>84175000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2649,7 +2661,7 @@
         <v>4095000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2680,7 +2692,7 @@
         <v>56650000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2707,12 +2719,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="121" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2764,21 +2776,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2793,7 +2805,7 @@
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
@@ -2808,7 +2820,7 @@
       <c r="H2" s="125"/>
       <c r="I2" s="125"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2819,7 +2831,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="128" t="s">
         <v>45</v>
       </c>
@@ -2832,35 +2844,35 @@
       <c r="H4" s="128"/>
       <c r="I4" s="128"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="123" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="112" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2870,11 +2882,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="123"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="115"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2903,7 +2915,7 @@
         <v>3825000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2933,7 +2945,7 @@
         <v>195195000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2960,7 +2972,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2987,7 +2999,7 @@
         <v>16275000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3066,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3098,7 +3110,7 @@
         <v>36375000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3125,7 +3137,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3154,7 +3166,7 @@
         <v>23280000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3186,7 +3198,7 @@
         <v>45955000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3218,7 +3230,7 @@
         <v>35945000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3274,12 +3286,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="121" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -3302,12 +3314,12 @@
         <v>437670000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="122" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3338,21 +3350,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3379,7 @@
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
@@ -3382,7 +3394,7 @@
       <c r="H2" s="125"/>
       <c r="I2" s="125"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -3393,7 +3405,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="128" t="s">
         <v>47</v>
       </c>
@@ -3406,35 +3418,35 @@
       <c r="H4" s="128"/>
       <c r="I4" s="128"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="123" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="112" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
+    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3444,11 +3456,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="123"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="115"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -3506,7 +3518,7 @@
         <v>177905000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -3533,7 +3545,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -3560,7 +3572,7 @@
         <v>10230000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -3587,7 +3599,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -3612,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3668,7 +3680,7 @@
         <v>29585000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3695,7 +3707,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3724,7 +3736,7 @@
         <v>22795000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3755,7 +3767,7 @@
         <v>44135000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3786,7 +3798,7 @@
         <v>35490000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3815,7 +3827,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3842,12 +3854,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="121" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3870,12 +3882,12 @@
         <v>404085000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="122" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3906,26 +3918,26 @@
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="29" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="29" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="29" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="29" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="5.5546875" style="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="29" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="29" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="29" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="29" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3941,7 +3953,7 @@
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
@@ -3957,7 +3969,7 @@
       <c r="I2" s="125"/>
       <c r="J2" s="125"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -3969,7 +3981,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="128" t="s">
         <v>48</v>
       </c>
@@ -3987,22 +3999,22 @@
       <c r="M4" s="128"/>
       <c r="N4" s="128"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="123" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="115" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="130" t="s">
@@ -4020,17 +4032,17 @@
       <c r="N6" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="123" t="s">
+      <c r="O6" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="123" t="s">
+      <c r="P6" s="115" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
+    <row r="7" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -4040,7 +4052,7 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="123"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="72" t="s">
         <v>49</v>
       </c>
@@ -4058,10 +4070,10 @@
         <v>43</v>
       </c>
       <c r="N7" s="132"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
@@ -4093,7 +4105,7 @@
       <c r="O8" s="63"/>
       <c r="P8" s="63"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
@@ -4147,7 +4159,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -4183,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
@@ -4238,7 +4250,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -4274,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
@@ -4322,7 +4334,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -4358,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
@@ -4413,7 +4425,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -4449,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
@@ -4502,7 +4514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -4557,7 +4569,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -4660,7 +4672,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
@@ -4701,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="129" t="s">
         <v>9</v>
       </c>
@@ -4758,13 +4770,13 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G24" s="122" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G24" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4797,23 +4809,23 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="29"/>
-    <col min="11" max="11" width="13.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="29"/>
+    <col min="11" max="11" width="13.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -4823,7 +4835,7 @@
       <c r="E1" s="124"/>
       <c r="F1" s="124"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
@@ -4833,7 +4845,7 @@
       <c r="E2" s="125"/>
       <c r="F2" s="125"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="80"/>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -4841,7 +4853,7 @@
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="128" t="s">
         <v>56</v>
       </c>
@@ -4854,14 +4866,14 @@
       <c r="H4" s="128"/>
       <c r="I4" s="128"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="72"/>
@@ -4876,14 +4888,14 @@
       <c r="I6" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="115" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
+    <row r="7" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="72"/>
       <c r="E7" s="85" t="s">
         <v>58</v>
@@ -4898,9 +4910,9 @@
         <v>43</v>
       </c>
       <c r="I7" s="132"/>
-      <c r="J7" s="123"/>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="115"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
@@ -4923,7 +4935,7 @@
       <c r="I8" s="93"/>
       <c r="J8" s="94"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
@@ -4966,7 +4978,7 @@
         <v>25025000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -4989,7 +5001,7 @@
       <c r="I10" s="93"/>
       <c r="J10" s="94"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
@@ -5017,7 +5029,7 @@
       <c r="I11" s="91"/>
       <c r="J11" s="89"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -5040,7 +5052,7 @@
       <c r="I12" s="91"/>
       <c r="J12" s="89"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
@@ -5070,7 +5082,7 @@
       <c r="I13" s="91"/>
       <c r="J13" s="89"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -5093,7 +5105,7 @@
       <c r="I14" s="91"/>
       <c r="J14" s="89"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
@@ -5121,7 +5133,7 @@
       <c r="I15" s="91"/>
       <c r="J15" s="89"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -5144,7 +5156,7 @@
       <c r="I16" s="91"/>
       <c r="J16" s="89"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
@@ -5170,7 +5182,7 @@
       <c r="I17" s="91"/>
       <c r="J17" s="89"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -5196,7 +5208,7 @@
       <c r="I18" s="91"/>
       <c r="J18" s="89"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -5222,7 +5234,7 @@
       <c r="I19" s="91"/>
       <c r="J19" s="89"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -5248,7 +5260,7 @@
       <c r="I20" s="91"/>
       <c r="J20" s="89"/>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
@@ -5274,7 +5286,7 @@
       <c r="I21" s="91"/>
       <c r="J21" s="89"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="129" t="s">
         <v>9</v>
       </c>
@@ -5300,7 +5312,7 @@
       <c r="I22" s="92"/>
       <c r="J22" s="90"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="D24" s="133" t="s">
         <v>60</v>
       </c>
@@ -5312,16 +5324,11 @@
       </c>
       <c r="H24" s="133"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M25" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -5330,6 +5337,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5344,25 +5356,25 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="29" customWidth="1"/>
     <col min="13" max="13" width="14" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="29"/>
+    <col min="14" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5378,7 +5390,7 @@
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
@@ -5394,7 +5406,7 @@
       <c r="I2" s="125"/>
       <c r="J2" s="125"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
       <c r="B3" s="82"/>
       <c r="C3" s="82"/>
@@ -5406,7 +5418,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="128" t="s">
         <v>71</v>
       </c>
@@ -5420,31 +5432,31 @@
       <c r="I4" s="128"/>
       <c r="J4" s="128"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="123" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="115" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="120" t="s">
+      <c r="J6" s="112" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="135" t="s">
@@ -5453,10 +5465,10 @@
       <c r="L6" s="135"/>
       <c r="M6" s="135"/>
     </row>
-    <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
+    <row r="7" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -5466,10 +5478,10 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="123"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="137"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
       <c r="K7" s="68" t="s">
         <v>77</v>
       </c>
@@ -5480,7 +5492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -5513,7 +5525,7 @@
       <c r="L8" s="97"/>
       <c r="M8" s="97"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -5546,7 +5558,7 @@
       <c r="L9" s="101"/>
       <c r="M9" s="105"/>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -5575,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -5618,7 +5630,7 @@
         <v>11160000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -5650,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -5726,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -5764,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -5796,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -5837,7 +5849,7 @@
         <v>11640000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -5883,7 +5895,7 @@
         <v>21840000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -5929,7 +5941,7 @@
         <v>16380000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -5973,7 +5985,7 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -6004,12 +6016,12 @@
       <c r="L21" s="100"/>
       <c r="M21" s="99"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="121" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -6045,21 +6057,16 @@
         <v>104520000</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G24" s="122" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G24" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -6070,6 +6077,11 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6078,28 +6090,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="35.33203125" style="29" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="29" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="29" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="29" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="29" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" style="29"/>
+    <col min="13" max="13" width="13.77734375" style="29" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -6115,7 +6129,7 @@
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
@@ -6131,7 +6145,7 @@
       <c r="I2" s="125"/>
       <c r="J2" s="125"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="111"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
@@ -6143,7 +6157,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="128" t="s">
         <v>78</v>
       </c>
@@ -6157,38 +6171,38 @@
       <c r="I4" s="128"/>
       <c r="J4" s="128"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="123" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="115" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="120" t="s">
+      <c r="J6" s="112" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
+    <row r="7" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -6198,12 +6212,24 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="123"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="137"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -6235,8 +6261,22 @@
         <f>G8*I8</f>
         <v>38475000</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="29">
+        <v>48</v>
+      </c>
+      <c r="L8" s="29">
+        <v>2</v>
+      </c>
+      <c r="M8" s="86">
+        <f>K8*I8</f>
+        <v>10800000</v>
+      </c>
+      <c r="Q8" s="29">
+        <f>G8-K8-N8-O8-P8</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -6268,8 +6308,26 @@
         <f t="shared" ref="J9:J21" si="1">G9*I9</f>
         <v>111930000</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="29">
+        <f>3*12</f>
+        <v>36</v>
+      </c>
+      <c r="L9" s="29">
+        <v>3</v>
+      </c>
+      <c r="M9" s="86">
+        <f t="shared" ref="M9:M20" si="2">K9*I9</f>
+        <v>16380000</v>
+      </c>
+      <c r="N9" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="29">
+        <f>G9-K9-N9-O9-P9</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -6291,8 +6349,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="29">
+        <f>G10-K10-N10-O10-P10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -6324,8 +6390,25 @@
         <f t="shared" si="1"/>
         <v>73470000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="29">
+        <v>36</v>
+      </c>
+      <c r="L11" s="29">
+        <v>3</v>
+      </c>
+      <c r="M11" s="86">
+        <f t="shared" si="2"/>
+        <v>16740000</v>
+      </c>
+      <c r="N11" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="29">
+        <f>G11-K11-N11-O11-P11</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -6340,7 +6423,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
-        <f t="shared" ref="H12:H19" si="2">G12/12</f>
+        <f t="shared" ref="H12:H19" si="3">G12/12</f>
         <v>0</v>
       </c>
       <c r="I12" s="39">
@@ -6350,8 +6433,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="29">
+        <f>G12-K12-N12-O12-P12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -6373,7 +6464,7 @@
         <v>76</v>
       </c>
       <c r="H13" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.333333333333333</v>
       </c>
       <c r="I13" s="39">
@@ -6383,8 +6474,25 @@
         <f t="shared" si="1"/>
         <v>36100000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="29">
+        <v>24</v>
+      </c>
+      <c r="L13" s="29">
+        <v>2</v>
+      </c>
+      <c r="M13" s="86">
+        <f t="shared" si="2"/>
+        <v>11400000</v>
+      </c>
+      <c r="N13" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="29">
+        <f>G13-K13-N13-O13-P13</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -6399,7 +6507,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14" s="39">
@@ -6409,8 +6517,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="29">
+        <f>G14-K14-N14-O14-P14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -6434,7 +6550,7 @@
         <v>35</v>
       </c>
       <c r="H15" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9166666666666665</v>
       </c>
       <c r="I15" s="39">
@@ -6444,8 +6560,31 @@
         <f t="shared" si="1"/>
         <v>16975000</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="29">
+        <v>12</v>
+      </c>
+      <c r="L15" s="29">
+        <v>1</v>
+      </c>
+      <c r="M15" s="86">
+        <f t="shared" si="2"/>
+        <v>5820000</v>
+      </c>
+      <c r="N15" s="29">
+        <v>3</v>
+      </c>
+      <c r="O15" s="29">
+        <v>1</v>
+      </c>
+      <c r="P15" s="29">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="29">
+        <f>G15-K15-N15-O15-P15</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -6460,7 +6599,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I16" s="39">
@@ -6470,8 +6609,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="29">
+        <f>G16-K16-N16-O16-P16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -6493,7 +6640,7 @@
         <v>35</v>
       </c>
       <c r="H17" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9166666666666665</v>
       </c>
       <c r="I17" s="39">
@@ -6503,8 +6650,25 @@
         <f t="shared" si="1"/>
         <v>16975000</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="29">
+        <v>12</v>
+      </c>
+      <c r="L17" s="29">
+        <v>1</v>
+      </c>
+      <c r="M17" s="86">
+        <f t="shared" si="2"/>
+        <v>5820000</v>
+      </c>
+      <c r="N17" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="29">
+        <f>G17-K17-N17-O17-P17</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -6528,7 +6692,7 @@
         <v>23</v>
       </c>
       <c r="H18" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9166666666666667</v>
       </c>
       <c r="I18" s="39">
@@ -6538,8 +6702,28 @@
         <f t="shared" si="1"/>
         <v>10465000</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="29">
+        <v>0</v>
+      </c>
+      <c r="L18" s="29">
+        <v>0</v>
+      </c>
+      <c r="M18" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="29">
+        <v>2</v>
+      </c>
+      <c r="P18" s="29">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="29">
+        <f>G18-K18-N18-O18-P18</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -6563,7 +6747,7 @@
         <v>105</v>
       </c>
       <c r="H19" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
       <c r="I19" s="39">
@@ -6573,8 +6757,25 @@
         <f t="shared" si="1"/>
         <v>47775000</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="29">
+        <v>24</v>
+      </c>
+      <c r="L19" s="29">
+        <v>2</v>
+      </c>
+      <c r="M19" s="86">
+        <f t="shared" si="2"/>
+        <v>10920000</v>
+      </c>
+      <c r="O19" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="29">
+        <f>G19-K19-N19-O19-P19</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -6608,8 +6809,25 @@
         <f t="shared" si="1"/>
         <v>45100000</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="29">
+        <v>48</v>
+      </c>
+      <c r="L20" s="29">
+        <v>2</v>
+      </c>
+      <c r="M20" s="86">
+        <f t="shared" si="2"/>
+        <v>26400000</v>
+      </c>
+      <c r="N20" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="29">
+        <f>G20-K20-N20-O20-P20</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -6637,12 +6855,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="121" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>27</v>
@@ -6665,14 +6883,22 @@
         <f>SUM(J8:J21)</f>
         <v>454415000</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G24" s="122" t="s">
+      <c r="L22" s="29">
+        <f>SUM(L8:L21)</f>
+        <v>16</v>
+      </c>
+      <c r="M22" s="86">
+        <f>SUM(M8:M21)</f>
+        <v>104280000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G24" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="02-07" sheetId="3" r:id="rId3"/>
     <sheet name="09-07" sheetId="5" r:id="rId4"/>
     <sheet name="Miền Nam" sheetId="7" r:id="rId5"/>
-    <sheet name="Duy nhất" sheetId="8" r:id="rId6"/>
-    <sheet name="24-7" sheetId="9" r:id="rId7"/>
+    <sheet name="24-7" sheetId="9" r:id="rId6"/>
+    <sheet name="Duy nhất" sheetId="8" r:id="rId7"/>
     <sheet name="11-8" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="90">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -260,22 +261,43 @@
     <t>TỔNG HỢP KHO NGÀY 11/8/2020</t>
   </si>
   <si>
-    <t>3s</t>
-  </si>
-  <si>
-    <t>anh công</t>
-  </si>
-  <si>
-    <t>khách lẻ 1</t>
-  </si>
-  <si>
-    <t>khách lẻ 2</t>
+    <t>3s (hộp)</t>
+  </si>
+  <si>
+    <t>3s (thùng)</t>
+  </si>
+  <si>
+    <t>đổi hàng cho anh công</t>
+  </si>
+  <si>
+    <t>khách lẻ sau bigc</t>
+  </si>
+  <si>
+    <t>hàng anh công trả về (có lỗi )</t>
+  </si>
+  <si>
+    <t>Chị hải</t>
+  </si>
+  <si>
+    <t>Chị hải trả hàng</t>
+  </si>
+  <si>
+    <t>Còn lại( hộp)</t>
+  </si>
+  <si>
+    <t>Còn lại (thùng)</t>
+  </si>
+  <si>
+    <t>TỔNG HỢP KHO NGÀY 13/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thành </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -608,7 +630,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -824,6 +846,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -835,30 +887,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -901,6 +929,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -963,7 +1004,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -998,7 +1039,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1213,32 +1254,32 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7" style="16" customWidth="1"/>
-    <col min="7" max="8" width="9.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1263,19 +1304,19 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1300,7 +1341,7 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1335,15 +1376,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1373,28 +1414,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
+    <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="120"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1404,7 +1445,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="122"/>
+      <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1697,11 +1738,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1719,35 +1760,35 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="112" t="s">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="112" t="s">
+      <c r="D25" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="115" t="s">
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="112" t="s">
+      <c r="H25" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="112" t="s">
+      <c r="I25" s="122" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="112"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="122"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1757,11 +1798,11 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="115"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-    </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G26" s="125"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+    </row>
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>13</v>
       </c>
@@ -1790,7 +1831,7 @@
         <v>10125000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>16</v>
       </c>
@@ -1817,7 +1858,7 @@
         <v>455000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>18</v>
       </c>
@@ -1844,7 +1885,7 @@
         <v>1645000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
@@ -1869,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>22</v>
       </c>
@@ -1896,7 +1937,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>24</v>
       </c>
@@ -1923,7 +1964,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>26</v>
       </c>
@@ -1948,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>28</v>
       </c>
@@ -1977,7 +2018,7 @@
         <v>25220000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
@@ -2004,7 +2045,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>32</v>
       </c>
@@ -2031,7 +2072,7 @@
         <v>485000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
@@ -2062,7 +2103,7 @@
         <v>84630000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
@@ -2091,7 +2132,7 @@
         <v>15925000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>38</v>
       </c>
@@ -2122,7 +2163,7 @@
         <v>58300000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>40</v>
       </c>
@@ -2149,12 +2190,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="113" t="s">
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -2178,17 +2219,26 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G43" s="114" t="s">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -2200,15 +2250,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2222,50 +2263,50 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="29" customWidth="1"/>
     <col min="7" max="7" width="13" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="8" max="8" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="124" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="125" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -2276,48 +2317,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="128" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="122" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2327,11 +2368,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2360,7 +2401,7 @@
         <v>4275000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2389,7 +2430,7 @@
         <v>124215000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2416,7 +2457,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2441,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -2468,7 +2509,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2495,7 +2536,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2520,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -2549,7 +2590,7 @@
         <v>15520000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -2576,7 +2617,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -2601,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -2632,7 +2673,7 @@
         <v>84175000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -2661,7 +2702,7 @@
         <v>4095000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -2692,7 +2733,7 @@
         <v>56650000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2719,12 +2760,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="113" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2776,21 +2817,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2798,29 +2839,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="125" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2831,48 +2872,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="128" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="115" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="122" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2882,11 +2923,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="125"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -2915,7 +2956,7 @@
         <v>3825000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -2945,7 +2986,7 @@
         <v>195195000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -2972,7 +3013,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2999,7 +3040,7 @@
         <v>16275000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -3026,7 +3067,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -3053,7 +3094,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3078,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3110,7 +3151,7 @@
         <v>36375000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3137,7 +3178,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3166,7 +3207,7 @@
         <v>23280000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3198,7 +3239,7 @@
         <v>45955000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3230,7 +3271,7 @@
         <v>35945000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3259,7 +3300,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3286,12 +3327,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="113" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -3314,12 +3355,12 @@
         <v>437670000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="114" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3350,21 +3391,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3372,29 +3413,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="125" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -3405,48 +3446,48 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="128" t="s">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="115" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="122" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3456,11 +3497,11 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="125"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -3489,7 +3530,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -3518,7 +3559,7 @@
         <v>177905000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -3545,7 +3586,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -3572,7 +3613,7 @@
         <v>10230000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -3599,7 +3640,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -3624,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -3649,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -3680,7 +3721,7 @@
         <v>29585000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -3707,7 +3748,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -3736,7 +3777,7 @@
         <v>22795000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -3767,7 +3808,7 @@
         <v>44135000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -3798,7 +3839,7 @@
         <v>35490000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -3827,7 +3868,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -3854,12 +3895,12 @@
         <v>57150000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="113" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3882,12 +3923,12 @@
         <v>404085000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="114" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3918,26 +3959,26 @@
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="29" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="29" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="29" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="29" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="5.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="29" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="29" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3945,31 +3986,31 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="125" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -3981,68 +4022,68 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="128" t="s">
+    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="115" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="130" t="s">
+      <c r="H6" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="131" t="s">
+      <c r="L6" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="131"/>
-      <c r="N6" s="132" t="s">
+      <c r="M6" s="133"/>
+      <c r="N6" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="115" t="s">
+      <c r="O6" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="115" t="s">
+      <c r="P6" s="125" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
+    <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -4052,7 +4093,7 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="115"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="72" t="s">
         <v>49</v>
       </c>
@@ -4069,11 +4110,11 @@
       <c r="M7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="132"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="134"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
@@ -4105,7 +4146,7 @@
       <c r="O8" s="63"/>
       <c r="P8" s="63"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>16</v>
       </c>
@@ -4159,7 +4200,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -4195,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
@@ -4250,7 +4291,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -4286,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
@@ -4334,7 +4375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -4370,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
@@ -4425,7 +4466,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -4461,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>32</v>
       </c>
@@ -4514,7 +4555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -4569,7 +4610,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -4624,7 +4665,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -4672,7 +4713,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
@@ -4713,12 +4754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="129" t="s">
+    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="57">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -4770,13 +4811,13 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G24" s="114" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G24" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4803,578 +4844,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="29"/>
-    <col min="11" max="11" width="13.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="115" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="132"/>
-      <c r="J7" s="115"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="74">
-        <v>225000</v>
-      </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74" t="e">
-        <f>#REF!*D8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="94"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="76">
-        <v>455000</v>
-      </c>
-      <c r="E9" s="76">
-        <v>2</v>
-      </c>
-      <c r="F9" s="76">
-        <f>E9*12*D9</f>
-        <v>10920000</v>
-      </c>
-      <c r="G9" s="54">
-        <v>3</v>
-      </c>
-      <c r="H9" s="55">
-        <f>G9*D9*12</f>
-        <v>16380000</v>
-      </c>
-      <c r="I9" s="95">
-        <f>25000000/D9</f>
-        <v>54.945054945054942</v>
-      </c>
-      <c r="J9" s="96">
-        <f>I9/12</f>
-        <v>4.5787545787545785</v>
-      </c>
-      <c r="K9" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="98">
-        <f>4*D9*12+7*D9</f>
-        <v>25025000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="76">
-        <v>235000</v>
-      </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76">
-        <f t="shared" ref="F10:F21" si="0">E10*12*D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="76">
-        <v>465000</v>
-      </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="54">
-        <v>1</v>
-      </c>
-      <c r="H11" s="87">
-        <f>G11*D11*12</f>
-        <v>5580000</v>
-      </c>
-      <c r="I11" s="91"/>
-      <c r="J11" s="89"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="76">
-        <v>245000</v>
-      </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="89"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="76">
-        <v>475000</v>
-      </c>
-      <c r="E13" s="76">
-        <v>1</v>
-      </c>
-      <c r="F13" s="76">
-        <f t="shared" si="0"/>
-        <v>5700000</v>
-      </c>
-      <c r="G13" s="54">
-        <v>1</v>
-      </c>
-      <c r="H13" s="87">
-        <f>G13*D13*12</f>
-        <v>5700000</v>
-      </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="89"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="76">
-        <v>255000</v>
-      </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="89"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="76">
-        <v>485000</v>
-      </c>
-      <c r="E15" s="76">
-        <v>1</v>
-      </c>
-      <c r="F15" s="76">
-        <f t="shared" si="0"/>
-        <v>5820000</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="87">
-        <f>G15*D15*12</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="91"/>
-      <c r="J15" s="89"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="76">
-        <v>255000</v>
-      </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="89"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="76">
-        <v>485000</v>
-      </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="87">
-        <f>G17*D17*12</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="91"/>
-      <c r="J17" s="89"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="76">
-        <v>455000</v>
-      </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="87">
-        <f>G18*D18*12</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="91"/>
-      <c r="J18" s="89"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="76">
-        <v>455000</v>
-      </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="87">
-        <f>G19*D19*12</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="91"/>
-      <c r="J19" s="89"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="76">
-        <v>550000</v>
-      </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="87">
-        <f>G20*D20*24</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="91"/>
-      <c r="J20" s="89"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="76">
-        <v>450000</v>
-      </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="87">
-        <f>G21*D21*12</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="91"/>
-      <c r="J21" s="89"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="129" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78">
-        <f>SUM(E9:E21)</f>
-        <v>4</v>
-      </c>
-      <c r="F22" s="79">
-        <f>SUM(F9:F21)</f>
-        <v>22440000</v>
-      </c>
-      <c r="G22" s="59">
-        <f>SUM(G9:G20)</f>
-        <v>5</v>
-      </c>
-      <c r="H22" s="88">
-        <f>SUM(H8:H21)</f>
-        <v>27660000</v>
-      </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="90"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="D24" s="133" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="134">
-        <f>F22+H22</f>
-        <v>50100000</v>
-      </c>
-      <c r="H24" s="133"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M25" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection activeCell="G24" sqref="G24:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="29" customWidth="1"/>
     <col min="13" max="13" width="14" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="29"/>
+    <col min="14" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5382,31 +4876,31 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="125" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
       <c r="B3" s="82"/>
       <c r="C3" s="82"/>
@@ -5418,57 +4912,57 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="128" t="s">
+    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="115" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="112" t="s">
+      <c r="J6" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="135" t="s">
+      <c r="K6" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-    </row>
-    <row r="7" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+    </row>
+    <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -5478,10 +4972,10 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
       <c r="K7" s="68" t="s">
         <v>77</v>
       </c>
@@ -5492,7 +4986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -5525,7 +5019,7 @@
       <c r="L8" s="97"/>
       <c r="M8" s="97"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -5558,7 +5052,7 @@
       <c r="L9" s="101"/>
       <c r="M9" s="105"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -5587,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -5630,7 +5124,7 @@
         <v>11160000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -5662,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -5706,7 +5200,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -5738,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -5776,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -5808,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -5849,7 +5343,7 @@
         <v>11640000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -5895,7 +5389,7 @@
         <v>21840000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -5941,7 +5435,7 @@
         <v>16380000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -5985,7 +5479,7 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -6016,12 +5510,12 @@
       <c r="L21" s="100"/>
       <c r="M21" s="99"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="113" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -6057,16 +5551,21 @@
         <v>104520000</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G24" s="114" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G24" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -6077,43 +5576,586 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="29"/>
+    <col min="11" max="11" width="13.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="84"/>
+      <c r="G6" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="133"/>
+      <c r="I6" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="125" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="134"/>
+      <c r="J7" s="125"/>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="74">
+        <v>225000</v>
+      </c>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74" t="e">
+        <f>#REF!*D8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="94"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="76">
+        <v>455000</v>
+      </c>
+      <c r="E9" s="76">
+        <v>2</v>
+      </c>
+      <c r="F9" s="76">
+        <f>E9*12*D9</f>
+        <v>10920000</v>
+      </c>
+      <c r="G9" s="54">
+        <v>3</v>
+      </c>
+      <c r="H9" s="55">
+        <f>G9*D9*12</f>
+        <v>16380000</v>
+      </c>
+      <c r="I9" s="95">
+        <f>25000000/D9</f>
+        <v>54.945054945054942</v>
+      </c>
+      <c r="J9" s="96">
+        <f>I9/12</f>
+        <v>4.5787545787545785</v>
+      </c>
+      <c r="K9" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="98">
+        <f>4*D9*12+7*D9</f>
+        <v>25025000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="76">
+        <v>235000</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76">
+        <f t="shared" ref="F10:F21" si="0">E10*12*D10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="76">
+        <v>465000</v>
+      </c>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="54">
+        <v>1</v>
+      </c>
+      <c r="H11" s="87">
+        <f>G11*D11*12</f>
+        <v>5580000</v>
+      </c>
+      <c r="I11" s="91"/>
+      <c r="J11" s="89"/>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="76">
+        <v>245000</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="89"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="76">
+        <v>475000</v>
+      </c>
+      <c r="E13" s="76">
+        <v>1</v>
+      </c>
+      <c r="F13" s="76">
+        <f t="shared" si="0"/>
+        <v>5700000</v>
+      </c>
+      <c r="G13" s="54">
+        <v>1</v>
+      </c>
+      <c r="H13" s="87">
+        <f>G13*D13*12</f>
+        <v>5700000</v>
+      </c>
+      <c r="I13" s="91"/>
+      <c r="J13" s="89"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="76">
+        <v>255000</v>
+      </c>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="76">
+        <v>485000</v>
+      </c>
+      <c r="E15" s="76">
+        <v>1</v>
+      </c>
+      <c r="F15" s="76">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="87">
+        <f>G15*D15*12</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="91"/>
+      <c r="J15" s="89"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="76">
+        <v>255000</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="89"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="76">
+        <v>485000</v>
+      </c>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="87">
+        <f>G17*D17*12</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="91"/>
+      <c r="J17" s="89"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="76">
+        <v>455000</v>
+      </c>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="87">
+        <f>G18*D18*12</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="91"/>
+      <c r="J18" s="89"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="76">
+        <v>455000</v>
+      </c>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="87">
+        <f>G19*D19*12</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="91"/>
+      <c r="J19" s="89"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="76">
+        <v>550000</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="87">
+        <f>G20*D20*24</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="91"/>
+      <c r="J20" s="89"/>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="76">
+        <v>450000</v>
+      </c>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="87">
+        <f>G21*D21*12</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="91"/>
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78">
+        <f>SUM(E9:E21)</f>
+        <v>4</v>
+      </c>
+      <c r="F22" s="79">
+        <f>SUM(F9:F21)</f>
+        <v>22440000</v>
+      </c>
+      <c r="G22" s="59">
+        <f>SUM(G9:G20)</f>
+        <v>5</v>
+      </c>
+      <c r="H22" s="88">
+        <f>SUM(H8:H21)</f>
+        <v>27660000</v>
+      </c>
+      <c r="I22" s="92"/>
+      <c r="J22" s="90"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D24" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="136">
+        <f>F22+H22</f>
+        <v>50100000</v>
+      </c>
+      <c r="H24" s="135"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="29" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="29" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="29" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="29" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="29" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="29"/>
-    <col min="13" max="13" width="13.77734375" style="29" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="29"/>
+    <col min="1" max="1" width="35.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="29" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="29" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="29" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -6121,31 +6163,31 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="125" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="111"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
@@ -6157,52 +6199,61 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="128" t="s">
+    <row r="4" spans="1:21" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="115" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="112" t="s">
+      <c r="J6" s="122" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+    </row>
+    <row r="7" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -6212,24 +6263,43 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="29" t="s">
+      <c r="G7" s="125"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="L7" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="M7" s="100"/>
+      <c r="N7" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="O7" s="141" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="141" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q7" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="141" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" s="141" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -6261,22 +6331,31 @@
         <f>G8*I8</f>
         <v>38475000</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="142">
         <v>48</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="142">
         <v>2</v>
       </c>
-      <c r="M8" s="86">
+      <c r="M8" s="143">
         <f>K8*I8</f>
         <v>10800000</v>
       </c>
-      <c r="Q8" s="29">
-        <f>G8-K8-N8-O8-P8</f>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="142"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="142">
+        <f>G8-K8-N8+O8-P8-Q8</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T8" s="97">
+        <f>S8/24</f>
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
@@ -6308,26 +6387,36 @@
         <f t="shared" ref="J9:J21" si="1">G9*I9</f>
         <v>111930000</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="142">
         <f>3*12</f>
         <v>36</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="142">
         <v>3</v>
       </c>
-      <c r="M9" s="86">
+      <c r="M9" s="143">
         <f t="shared" ref="M9:M20" si="2">K9*I9</f>
         <v>16380000</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="142">
         <v>2</v>
       </c>
-      <c r="Q9" s="29">
-        <f>G9-K9-N9-O9-P9</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="142">
+        <v>2</v>
+      </c>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="142">
+        <f t="shared" ref="S9:S20" si="3">G9-K9-N9+O9-P9-Q9</f>
+        <v>210</v>
+      </c>
+      <c r="T9" s="97">
+        <f>S9/12</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -6349,16 +6438,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="86">
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="29">
-        <f>G10-K10-N10-O10-P10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="142">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="97">
+        <f t="shared" ref="T10:T19" si="4">S10/12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -6390,25 +6490,37 @@
         <f t="shared" si="1"/>
         <v>73470000</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="142">
         <v>36</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="142">
         <v>3</v>
       </c>
-      <c r="M11" s="86">
+      <c r="M11" s="143">
         <f t="shared" si="2"/>
         <v>16740000</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="142">
         <v>2</v>
       </c>
-      <c r="Q11" s="29">
-        <f>G11-K11-N11-O11-P11</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="142">
+        <v>2</v>
+      </c>
+      <c r="P11" s="142"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="142">
+        <v>12</v>
+      </c>
+      <c r="S11" s="142">
+        <f>G11-K11-N11+O11-P11-Q11+R11</f>
+        <v>134</v>
+      </c>
+      <c r="T11" s="97">
+        <f t="shared" si="4"/>
+        <v>11.166666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
@@ -6423,7 +6535,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
-        <f t="shared" ref="H12:H19" si="3">G12/12</f>
+        <f t="shared" ref="H12:H19" si="5">G12/12</f>
         <v>0</v>
       </c>
       <c r="I12" s="39">
@@ -6433,16 +6545,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="86">
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="29">
-        <f>G12-K12-N12-O12-P12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N12" s="142"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="142"/>
+      <c r="Q12" s="142"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="142">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -6464,7 +6587,7 @@
         <v>76</v>
       </c>
       <c r="H13" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.333333333333333</v>
       </c>
       <c r="I13" s="39">
@@ -6474,25 +6597,35 @@
         <f t="shared" si="1"/>
         <v>36100000</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="142">
         <v>24</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="142">
         <v>2</v>
       </c>
-      <c r="M13" s="86">
+      <c r="M13" s="143">
         <f t="shared" si="2"/>
         <v>11400000</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="142">
         <v>3</v>
       </c>
-      <c r="Q13" s="29">
-        <f>G13-K13-N13-O13-P13</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="142">
+        <v>3</v>
+      </c>
+      <c r="P13" s="142"/>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="142">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="T13" s="97">
+        <f t="shared" si="4"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -6507,7 +6640,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I14" s="39">
@@ -6517,16 +6650,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="86">
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="29">
-        <f>G14-K14-N14-O14-P14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
@@ -6550,7 +6694,7 @@
         <v>35</v>
       </c>
       <c r="H15" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9166666666666665</v>
       </c>
       <c r="I15" s="39">
@@ -6560,31 +6704,39 @@
         <f t="shared" si="1"/>
         <v>16975000</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="142">
         <v>12</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="142">
         <v>1</v>
       </c>
-      <c r="M15" s="86">
+      <c r="M15" s="143">
         <f t="shared" si="2"/>
         <v>5820000</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="142">
         <v>3</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="142">
+        <v>3</v>
+      </c>
+      <c r="P15" s="142">
         <v>1</v>
       </c>
-      <c r="P15" s="29">
+      <c r="Q15" s="142">
         <v>12</v>
       </c>
-      <c r="Q15" s="29">
-        <f>G15-K15-N15-O15-P15</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="142"/>
+      <c r="S15" s="142">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="T15" s="97">
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
@@ -6599,7 +6751,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I16" s="39">
@@ -6609,16 +6761,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="86">
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="29">
-        <f>G16-K16-N16-O16-P16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="142">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
@@ -6640,7 +6803,7 @@
         <v>35</v>
       </c>
       <c r="H17" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9166666666666665</v>
       </c>
       <c r="I17" s="39">
@@ -6650,25 +6813,35 @@
         <f t="shared" si="1"/>
         <v>16975000</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="142">
         <v>12</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="142">
         <v>1</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M17" s="143">
         <f t="shared" si="2"/>
         <v>5820000</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="142">
         <v>3</v>
       </c>
-      <c r="Q17" s="29">
-        <f>G17-K17-N17-O17-P17</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O17" s="142">
+        <v>3</v>
+      </c>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="142"/>
+      <c r="S17" s="142">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="T17" s="97">
+        <f t="shared" si="4"/>
+        <v>1.9166666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>34</v>
       </c>
@@ -6692,7 +6865,7 @@
         <v>23</v>
       </c>
       <c r="H18" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9166666666666667</v>
       </c>
       <c r="I18" s="39">
@@ -6702,28 +6875,35 @@
         <f t="shared" si="1"/>
         <v>10465000</v>
       </c>
-      <c r="K18" s="29">
-        <v>0</v>
-      </c>
-      <c r="L18" s="29">
-        <v>0</v>
-      </c>
-      <c r="M18" s="86">
+      <c r="K18" s="142">
+        <v>12</v>
+      </c>
+      <c r="L18" s="142">
+        <v>1</v>
+      </c>
+      <c r="M18" s="143">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="29">
+        <v>5460000</v>
+      </c>
+      <c r="N18" s="142">
         <v>2</v>
       </c>
-      <c r="P18" s="29">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="29">
-        <f>G18-K18-N18-O18-P18</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O18" s="142">
+        <v>2</v>
+      </c>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="142">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="T18" s="97">
+        <f t="shared" si="4"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -6747,7 +6927,7 @@
         <v>105</v>
       </c>
       <c r="H19" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.75</v>
       </c>
       <c r="I19" s="39">
@@ -6757,25 +6937,35 @@
         <f t="shared" si="1"/>
         <v>47775000</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="142">
         <v>24</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="142">
         <v>2</v>
       </c>
-      <c r="M19" s="86">
+      <c r="M19" s="143">
         <f t="shared" si="2"/>
         <v>10920000</v>
       </c>
-      <c r="O19" s="29">
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142">
         <v>1</v>
       </c>
-      <c r="Q19" s="29">
-        <f>G19-K19-N19-O19-P19</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q19" s="142">
+        <v>12</v>
+      </c>
+      <c r="R19" s="142"/>
+      <c r="S19" s="142">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="T19" s="97">
+        <f t="shared" si="4"/>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -6809,25 +6999,35 @@
         <f t="shared" si="1"/>
         <v>45100000</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="142">
         <v>48</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="142">
         <v>2</v>
       </c>
-      <c r="M20" s="86">
+      <c r="M20" s="143">
         <f t="shared" si="2"/>
         <v>26400000</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="142">
         <v>2</v>
       </c>
-      <c r="Q20" s="29">
-        <f>G20-K20-N20-O20-P20</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="142">
+        <v>2</v>
+      </c>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="142">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="T20" s="97">
+        <f>S20/24</f>
+        <v>1.4166666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
@@ -6854,13 +7054,23 @@
         <f t="shared" si="1"/>
         <v>57150000</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="113" t="s">
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>27</v>
@@ -6883,22 +7093,626 @@
         <f>SUM(J8:J21)</f>
         <v>454415000</v>
       </c>
-      <c r="L22" s="29">
-        <f>SUM(L8:L21)</f>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="144">
+        <f>SUM(M8:M21)</f>
+        <v>109740000</v>
+      </c>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G24" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K6:S6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="126" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="127" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="122" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="125"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34">
+        <v>3</v>
+      </c>
+      <c r="G8" s="35">
+        <f>SUM(D8:F8)</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="36">
+        <v>225000</v>
+      </c>
+      <c r="J8" s="36">
+        <f>G8*I8</f>
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="86">
-        <f>SUM(M8:M21)</f>
-        <v>104280000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G24" s="114" t="s">
+      <c r="B9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37">
+        <v>6</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
+        <v>6</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="39">
+        <v>455000</v>
+      </c>
+      <c r="J9" s="39">
+        <f t="shared" ref="J9:J21" si="1">G9*I9</f>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39">
+        <v>235000</v>
+      </c>
+      <c r="J10" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37">
+        <v>24</v>
+      </c>
+      <c r="F11" s="37">
+        <v>20</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="39">
+        <v>465000</v>
+      </c>
+      <c r="J11" s="39">
+        <f t="shared" si="1"/>
+        <v>20460000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39">
+        <v>245000</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37">
+        <f>6*12</f>
+        <v>72</v>
+      </c>
+      <c r="F13" s="37">
+        <v>7</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="39">
+        <v>475000</v>
+      </c>
+      <c r="J13" s="39">
+        <f t="shared" si="1"/>
+        <v>37525000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39">
+        <v>255000</v>
+      </c>
+      <c r="J14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37">
+        <v>11</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="39">
+        <v>485000</v>
+      </c>
+      <c r="J15" s="39">
+        <f t="shared" si="1"/>
+        <v>5820000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39">
+        <v>255000</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37">
+        <v>27</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="39">
+        <v>485000</v>
+      </c>
+      <c r="J17" s="39">
+        <f t="shared" si="1"/>
+        <v>13095000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37">
+        <v>1</v>
+      </c>
+      <c r="E18" s="37">
+        <v>36</v>
+      </c>
+      <c r="F18" s="37">
+        <f>22+6+25</f>
+        <v>53</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="39">
+        <v>455000</v>
+      </c>
+      <c r="J18" s="39">
+        <f t="shared" si="1"/>
+        <v>40950000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37">
+        <v>3</v>
+      </c>
+      <c r="E19" s="37">
+        <v>24</v>
+      </c>
+      <c r="F19" s="37">
+        <f>13+10</f>
+        <v>23</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="39">
+        <v>455000</v>
+      </c>
+      <c r="J19" s="39">
+        <f t="shared" si="1"/>
+        <v>22750000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="37">
+        <v>22</v>
+      </c>
+      <c r="E20" s="37">
+        <f>24*4</f>
+        <v>96</v>
+      </c>
+      <c r="F20" s="37">
+        <v>15</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="39">
+        <v>550000</v>
+      </c>
+      <c r="J20" s="39">
+        <f t="shared" si="1"/>
+        <v>73150000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40">
+        <v>127</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42">
+        <v>450000</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" si="1"/>
+        <v>57150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="43">
+        <f>SUM(D8:D21)</f>
+        <v>27</v>
+      </c>
+      <c r="E22" s="43">
+        <f>SUM(E8:E21)</f>
+        <v>379</v>
+      </c>
+      <c r="F22" s="43">
+        <f>SUM(F8:F21)</f>
+        <v>165</v>
+      </c>
+      <c r="G22" s="43">
+        <f t="shared" si="0"/>
+        <v>571</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="28">
+        <f>SUM(J8:J21)</f>
+        <v>274305000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/báo cáo kho.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="19_06" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Duy nhất" sheetId="8" r:id="rId7"/>
     <sheet name="11-8" sheetId="10" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="2410" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="100">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -292,6 +293,36 @@
   </si>
   <si>
     <t xml:space="preserve">Thành </t>
+  </si>
+  <si>
+    <t>TỔNG HỢP KHO NGÀY 24/10/2020</t>
+  </si>
+  <si>
+    <t>37 thùng + 9 hộp</t>
+  </si>
+  <si>
+    <t>4 thùng 11 hộp</t>
+  </si>
+  <si>
+    <t>3 thùng 9 hộp</t>
+  </si>
+  <si>
+    <t>19 thùng 3 hộp</t>
+  </si>
+  <si>
+    <t>4 hộp</t>
+  </si>
+  <si>
+    <t>8 thùng 2 hộp</t>
+  </si>
+  <si>
+    <t>2 thùng 8 hộp</t>
+  </si>
+  <si>
+    <t>9 thùng 1 hộp</t>
+  </si>
+  <si>
+    <t>12 thùng</t>
   </si>
 </sst>
 </file>
@@ -630,7 +661,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,6 +882,34 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,18 +934,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,34 +961,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1268,18 +1305,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1305,18 +1342,18 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1376,15 +1413,15 @@
       <c r="AH3" s="15"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1414,28 +1451,28 @@
       <c r="AH4" s="18"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120" t="s">
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1445,7 +1482,7 @@
       <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="120"/>
+      <c r="G7" s="130"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1738,11 +1775,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
       <c r="D22" s="27">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -1761,34 +1798,34 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="122" t="s">
+      <c r="A25" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="125" t="s">
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="122" t="s">
+      <c r="H25" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="122" t="s">
+      <c r="I25" s="120" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="122"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
@@ -1798,9 +1835,9 @@
       <c r="F26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="125"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
@@ -2191,11 +2228,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="123" t="s">
+      <c r="A41" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="43">
         <f>SUM(D27:D40)</f>
         <v>19</v>
@@ -2220,25 +2257,16 @@
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="124" t="s">
+      <c r="G43" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:9" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -2250,8 +2278,560 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="123"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="34">
+        <f>12*24</f>
+        <v>288</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35">
+        <f>SUM(D8:E8)</f>
+        <v>288</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="36">
+        <v>225000</v>
+      </c>
+      <c r="I8" s="36">
+        <f>F8*H8</f>
+        <v>64800000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="37">
+        <f>37*12</f>
+        <v>444</v>
+      </c>
+      <c r="E9" s="37">
+        <v>9</v>
+      </c>
+      <c r="F9" s="38">
+        <f t="shared" ref="F9:F20" si="0">SUM(D9:E9)</f>
+        <v>453</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I9" s="39">
+        <f t="shared" ref="I9:I20" si="1">F9*H9</f>
+        <v>206115000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39">
+        <v>235000</v>
+      </c>
+      <c r="I10" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37">
+        <v>59</v>
+      </c>
+      <c r="F11" s="38">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="39">
+        <v>465000</v>
+      </c>
+      <c r="I11" s="39">
+        <f t="shared" si="1"/>
+        <v>27435000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39">
+        <v>245000</v>
+      </c>
+      <c r="I12" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37">
+        <v>8</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39">
+        <v>475000</v>
+      </c>
+      <c r="I13" s="39">
+        <f t="shared" si="1"/>
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37">
+        <v>81</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="39">
+        <v>255000</v>
+      </c>
+      <c r="I14" s="39">
+        <f t="shared" si="1"/>
+        <v>20655000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37">
+        <f>12*19</f>
+        <v>228</v>
+      </c>
+      <c r="E15" s="37">
+        <v>3</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="39">
+        <v>485000</v>
+      </c>
+      <c r="I15" s="39">
+        <f t="shared" si="1"/>
+        <v>112035000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39">
+        <v>255000</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37">
+        <v>4</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="39">
+        <v>485000</v>
+      </c>
+      <c r="I17" s="39">
+        <f t="shared" si="1"/>
+        <v>1940000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37">
+        <v>98</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I18" s="39">
+        <f t="shared" si="1"/>
+        <v>44590000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37">
+        <v>32</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="39">
+        <v>455000</v>
+      </c>
+      <c r="I19" s="39">
+        <f t="shared" si="1"/>
+        <v>14560000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="37">
+        <v>48</v>
+      </c>
+      <c r="E20" s="37">
+        <v>169</v>
+      </c>
+      <c r="F20" s="41">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="39">
+        <v>550000</v>
+      </c>
+      <c r="I20" s="39">
+        <f t="shared" si="1"/>
+        <v>119350000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="43">
+        <f>SUM(D8:D20)</f>
+        <v>1008</v>
+      </c>
+      <c r="E21" s="43">
+        <f>SUM(E8:E20)</f>
+        <v>463</v>
+      </c>
+      <c r="F21" s="43">
+        <f>SUM(D21:E21)</f>
+        <v>1471</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="28">
+        <f>SUM(I8:I20)</f>
+        <v>615280000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2277,34 +2857,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="126" t="s">
+      <c r="A1" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="127" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
@@ -2318,47 +2898,47 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="120" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2368,9 +2948,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -2761,11 +3341,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -2839,27 +3419,27 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="127" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -2873,47 +3453,47 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="125" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="120" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2923,9 +3503,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -3328,11 +3908,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>16</v>
@@ -3356,11 +3936,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3413,27 +3993,27 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="127" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
@@ -3447,47 +4027,47 @@
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="125" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="120" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -3497,9 +4077,9 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -3896,11 +4476,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>13</v>
@@ -3924,11 +4504,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3986,29 +4566,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="127" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
@@ -4023,67 +4603,67 @@
       <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="125" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
       <c r="K6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="133" t="s">
+      <c r="L6" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="133"/>
-      <c r="N6" s="134" t="s">
+      <c r="M6" s="139"/>
+      <c r="N6" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="125" t="s">
+      <c r="O6" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="125" t="s">
+      <c r="P6" s="123" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -4093,7 +4673,7 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="125"/>
+      <c r="G7" s="123"/>
       <c r="H7" s="72" t="s">
         <v>49</v>
       </c>
@@ -4110,9 +4690,9 @@
       <c r="M7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="134"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
     </row>
     <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
@@ -4755,11 +5335,11 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
       <c r="D22" s="57">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -4812,12 +5392,12 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4876,29 +5456,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="127" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
@@ -4913,56 +5493,56 @@
       <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="125" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="138" t="s">
+      <c r="H6" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="122" t="s">
+      <c r="J6" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
     </row>
     <row r="7" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -4972,10 +5552,10 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
       <c r="K7" s="68" t="s">
         <v>77</v>
       </c>
@@ -5511,11 +6091,11 @@
       <c r="M21" s="99"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>7</v>
@@ -5552,20 +6132,15 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -5576,6 +6151,11 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5612,19 +6192,19 @@
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="80"/>
@@ -5635,26 +6215,26 @@
       <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="72"/>
@@ -5662,21 +6242,21 @@
         <v>57</v>
       </c>
       <c r="F6" s="84"/>
-      <c r="G6" s="133" t="s">
+      <c r="G6" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="133"/>
-      <c r="I6" s="134" t="s">
+      <c r="H6" s="139"/>
+      <c r="I6" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="125" t="s">
+      <c r="J6" s="123" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="72"/>
       <c r="E7" s="85" t="s">
         <v>58</v>
@@ -5690,8 +6270,8 @@
       <c r="H7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="134"/>
-      <c r="J7" s="125"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
@@ -6068,11 +6648,11 @@
       <c r="J21" s="89"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
       <c r="D22" s="78"/>
       <c r="E22" s="78">
         <f>SUM(E9:E21)</f>
@@ -6094,27 +6674,22 @@
       <c r="J22" s="90"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="D24" s="135" t="s">
+      <c r="D24" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="136">
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="145">
         <f>F22+H22</f>
         <v>50100000</v>
       </c>
-      <c r="H24" s="135"/>
+      <c r="H24" s="144"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M25" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -6123,6 +6698,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6133,7 +6713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -6163,29 +6743,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="127" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="111"/>
@@ -6200,60 +6780,60 @@
       <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="125" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="138" t="s">
+      <c r="H6" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="122" t="s">
+      <c r="J6" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140"/>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
     </row>
     <row r="7" spans="1:21" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -6263,10 +6843,10 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
       <c r="K7" s="100" t="s">
         <v>79</v>
       </c>
@@ -6274,25 +6854,25 @@
         <v>80</v>
       </c>
       <c r="M7" s="100"/>
-      <c r="N7" s="141" t="s">
+      <c r="N7" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="141" t="s">
+      <c r="O7" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="141" t="s">
+      <c r="P7" s="116" t="s">
         <v>82</v>
       </c>
       <c r="Q7" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="141" t="s">
+      <c r="R7" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="S7" s="141" t="s">
+      <c r="S7" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="T7" s="141" t="s">
+      <c r="T7" s="116" t="s">
         <v>87</v>
       </c>
       <c r="U7" s="29" t="s">
@@ -6331,22 +6911,22 @@
         <f>G8*I8</f>
         <v>38475000</v>
       </c>
-      <c r="K8" s="142">
+      <c r="K8" s="117">
         <v>48</v>
       </c>
-      <c r="L8" s="142">
+      <c r="L8" s="117">
         <v>2</v>
       </c>
-      <c r="M8" s="143">
+      <c r="M8" s="118">
         <f>K8*I8</f>
         <v>10800000</v>
       </c>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142">
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117">
         <f>G8-K8-N8+O8-P8-Q8</f>
         <v>123</v>
       </c>
@@ -6387,27 +6967,27 @@
         <f t="shared" ref="J9:J21" si="1">G9*I9</f>
         <v>111930000</v>
       </c>
-      <c r="K9" s="142">
+      <c r="K9" s="117">
         <f>3*12</f>
         <v>36</v>
       </c>
-      <c r="L9" s="142">
+      <c r="L9" s="117">
         <v>3</v>
       </c>
-      <c r="M9" s="143">
+      <c r="M9" s="118">
         <f t="shared" ref="M9:M20" si="2">K9*I9</f>
         <v>16380000</v>
       </c>
-      <c r="N9" s="142">
+      <c r="N9" s="117">
         <v>2</v>
       </c>
-      <c r="O9" s="142">
+      <c r="O9" s="117">
         <v>2</v>
       </c>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142">
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117">
         <f t="shared" ref="S9:S20" si="3">G9-K9-N9+O9-P9-Q9</f>
         <v>210</v>
       </c>
@@ -6438,18 +7018,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="143">
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142">
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6490,28 +7070,28 @@
         <f t="shared" si="1"/>
         <v>73470000</v>
       </c>
-      <c r="K11" s="142">
+      <c r="K11" s="117">
         <v>36</v>
       </c>
-      <c r="L11" s="142">
+      <c r="L11" s="117">
         <v>3</v>
       </c>
-      <c r="M11" s="143">
+      <c r="M11" s="118">
         <f t="shared" si="2"/>
         <v>16740000</v>
       </c>
-      <c r="N11" s="142">
+      <c r="N11" s="117">
         <v>2</v>
       </c>
-      <c r="O11" s="142">
+      <c r="O11" s="117">
         <v>2</v>
       </c>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="142">
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117">
         <v>12</v>
       </c>
-      <c r="S11" s="142">
+      <c r="S11" s="117">
         <f>G11-K11-N11+O11-P11-Q11+R11</f>
         <v>134</v>
       </c>
@@ -6545,18 +7125,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="143">
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="142">
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6597,26 +7177,26 @@
         <f t="shared" si="1"/>
         <v>36100000</v>
       </c>
-      <c r="K13" s="142">
+      <c r="K13" s="117">
         <v>24</v>
       </c>
-      <c r="L13" s="142">
+      <c r="L13" s="117">
         <v>2</v>
       </c>
-      <c r="M13" s="143">
+      <c r="M13" s="118">
         <f t="shared" si="2"/>
         <v>11400000</v>
       </c>
-      <c r="N13" s="142">
+      <c r="N13" s="117">
         <v>3</v>
       </c>
-      <c r="O13" s="142">
+      <c r="O13" s="117">
         <v>3</v>
       </c>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="142">
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
@@ -6650,18 +7230,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="143">
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142">
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6704,30 +7284,30 @@
         <f t="shared" si="1"/>
         <v>16975000</v>
       </c>
-      <c r="K15" s="142">
+      <c r="K15" s="117">
         <v>12</v>
       </c>
-      <c r="L15" s="142">
+      <c r="L15" s="117">
         <v>1</v>
       </c>
-      <c r="M15" s="143">
+      <c r="M15" s="118">
         <f t="shared" si="2"/>
         <v>5820000</v>
       </c>
-      <c r="N15" s="142">
+      <c r="N15" s="117">
         <v>3</v>
       </c>
-      <c r="O15" s="142">
+      <c r="O15" s="117">
         <v>3</v>
       </c>
-      <c r="P15" s="142">
+      <c r="P15" s="117">
         <v>1</v>
       </c>
-      <c r="Q15" s="142">
+      <c r="Q15" s="117">
         <v>12</v>
       </c>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142">
+      <c r="R15" s="117"/>
+      <c r="S15" s="117">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -6761,18 +7341,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="143">
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="142">
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6813,26 +7393,26 @@
         <f t="shared" si="1"/>
         <v>16975000</v>
       </c>
-      <c r="K17" s="142">
+      <c r="K17" s="117">
         <v>12</v>
       </c>
-      <c r="L17" s="142">
+      <c r="L17" s="117">
         <v>1</v>
       </c>
-      <c r="M17" s="143">
+      <c r="M17" s="118">
         <f t="shared" si="2"/>
         <v>5820000</v>
       </c>
-      <c r="N17" s="142">
+      <c r="N17" s="117">
         <v>3</v>
       </c>
-      <c r="O17" s="142">
+      <c r="O17" s="117">
         <v>3</v>
       </c>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="142"/>
-      <c r="S17" s="142">
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -6875,26 +7455,26 @@
         <f t="shared" si="1"/>
         <v>10465000</v>
       </c>
-      <c r="K18" s="142">
+      <c r="K18" s="117">
         <v>12</v>
       </c>
-      <c r="L18" s="142">
+      <c r="L18" s="117">
         <v>1</v>
       </c>
-      <c r="M18" s="143">
+      <c r="M18" s="118">
         <f t="shared" si="2"/>
         <v>5460000</v>
       </c>
-      <c r="N18" s="142">
+      <c r="N18" s="117">
         <v>2</v>
       </c>
-      <c r="O18" s="142">
+      <c r="O18" s="117">
         <v>2</v>
       </c>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="142">
+      <c r="P18" s="117"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="117">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -6937,26 +7517,26 @@
         <f t="shared" si="1"/>
         <v>47775000</v>
       </c>
-      <c r="K19" s="142">
+      <c r="K19" s="117">
         <v>24</v>
       </c>
-      <c r="L19" s="142">
+      <c r="L19" s="117">
         <v>2</v>
       </c>
-      <c r="M19" s="143">
+      <c r="M19" s="118">
         <f t="shared" si="2"/>
         <v>10920000</v>
       </c>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142">
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117">
         <v>1</v>
       </c>
-      <c r="Q19" s="142">
+      <c r="Q19" s="117">
         <v>12</v>
       </c>
-      <c r="R19" s="142"/>
-      <c r="S19" s="142">
+      <c r="R19" s="117"/>
+      <c r="S19" s="117">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
@@ -6999,26 +7579,26 @@
         <f t="shared" si="1"/>
         <v>45100000</v>
       </c>
-      <c r="K20" s="142">
+      <c r="K20" s="117">
         <v>48</v>
       </c>
-      <c r="L20" s="142">
+      <c r="L20" s="117">
         <v>2</v>
       </c>
-      <c r="M20" s="143">
+      <c r="M20" s="118">
         <f t="shared" si="2"/>
         <v>26400000</v>
       </c>
-      <c r="N20" s="142">
+      <c r="N20" s="117">
         <v>2</v>
       </c>
-      <c r="O20" s="142">
+      <c r="O20" s="117">
         <v>2</v>
       </c>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142">
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -7066,11 +7646,11 @@
       <c r="T21" s="97"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>27</v>
@@ -7095,7 +7675,7 @@
       </c>
       <c r="K22" s="97"/>
       <c r="L22" s="97"/>
-      <c r="M22" s="144">
+      <c r="M22" s="119">
         <f>SUM(M8:M21)</f>
         <v>109740000</v>
       </c>
@@ -7108,20 +7688,15 @@
       <c r="T22" s="97"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K6:S6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G24:J24"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -7132,6 +7707,11 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K6:S6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7143,7 +7723,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7169,29 +7749,29 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="127" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="113"/>
@@ -7206,51 +7786,51 @@
       <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="125" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="138" t="s">
+      <c r="H6" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="122" t="s">
+      <c r="J6" s="120" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="32" t="s">
         <v>10</v>
       </c>
@@ -7260,10 +7840,10 @@
       <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -7678,11 +8258,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="43">
         <f>SUM(D8:D21)</f>
         <v>27</v>
@@ -7707,12 +8287,12 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="14">
